--- a/backend/hct_mis_api/apps/core/tests/test_files/kobo-template-valid.xlsx
+++ b/backend/hct_mis_api/apps/core/tests/test_files/kobo-template-valid.xlsx
@@ -553,7 +553,7 @@
     <t>Sister-in-law / Brother-in-law</t>
   </si>
   <si>
-    <t>granddaugther_grandson</t>
+    <t>granddaughter_grandson</t>
   </si>
   <si>
     <t>Granddaughter / Grandson</t>
@@ -7620,7 +7620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -7635,11 +7635,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -7648,7 +7648,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -7656,17 +7656,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -7683,7 +7683,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
@@ -7691,12 +7691,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7705,18 +7716,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7992,7 +7992,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
@@ -8004,7 +8004,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -8014,7 +8014,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -8026,7 +8026,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -8040,7 +8040,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -8062,28 +8062,28 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -8101,20 +8101,20 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -8399,9 +8399,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -8697,8 +8694,8 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff0c0c0c"/>
     </indexedColors>
   </colors>
@@ -9738,7 +9735,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -9876,16 +9873,19 @@
       <c r="D14" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15">
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" ht="13" customHeight="1">
+      <c r="A15" s="7"/>
       <c r="B15" t="s" s="3">
         <v>10</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" ht="13" customHeight="1">
+      <c r="A16" s="20"/>
       <c r="B16" s="4"/>
       <c r="C16" t="s" s="4">
         <v>5</v>
@@ -9893,6 +9893,7 @@
       <c r="D16" t="s" s="5">
         <v>10</v>
       </c>
+      <c r="E16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9902,8 +9903,9 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'choices'!R1C1" tooltip="" display="choices"/>
-    <hyperlink ref="D12" location="'survey'!R1C1" tooltip="" display="survey"/>
-    <hyperlink ref="D14" location="'settings'!R1C1" tooltip="" display="settings"/>
+    <hyperlink ref="D12" location="'choices'!R1C1" tooltip="" display="choices"/>
+    <hyperlink ref="D14" location="'survey'!R1C1" tooltip="" display="survey"/>
+    <hyperlink ref="D16" location="'settings'!R1C1" tooltip="" display="settings"/>
     <hyperlink ref="D12" location="'choices'!R1C1" tooltip="" display="choices"/>
     <hyperlink ref="D14" location="'survey'!R1C1" tooltip="" display="survey"/>
     <hyperlink ref="D16" location="'settings'!R1C1" tooltip="" display="settings"/>
@@ -23962,38 +23964,38 @@
       <c r="E91" t="s" s="38">
         <v>1322</v>
       </c>
-      <c r="F91" s="120"/>
-      <c r="G91" s="120"/>
-      <c r="H91" s="120"/>
-      <c r="I91" s="120"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
       <c r="J91" t="s" s="38">
         <v>1538</v>
       </c>
-      <c r="K91" s="120"/>
+      <c r="K91" s="11"/>
       <c r="L91" t="s" s="38">
         <v>873</v>
       </c>
-      <c r="M91" s="120"/>
-      <c r="N91" s="120"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
       <c r="O91" t="s" s="38">
         <v>1539</v>
       </c>
-      <c r="P91" s="120"/>
-      <c r="Q91" s="120"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
       <c r="R91" t="s" s="38">
         <v>1266</v>
       </c>
-      <c r="S91" t="s" s="121">
+      <c r="S91" t="s" s="120">
         <v>1267</v>
       </c>
-      <c r="T91" s="120"/>
+      <c r="T91" s="11"/>
       <c r="U91" t="s" s="38">
         <v>1331</v>
       </c>
       <c r="V91" t="s" s="38">
         <v>1537</v>
       </c>
-      <c r="W91" t="s" s="122">
+      <c r="W91" t="s" s="121">
         <v>1535</v>
       </c>
     </row>
@@ -24010,72 +24012,72 @@
       <c r="D92" t="s" s="50">
         <v>1535</v>
       </c>
-      <c r="E92" s="120"/>
-      <c r="F92" s="120"/>
-      <c r="G92" s="120"/>
-      <c r="H92" s="120"/>
-      <c r="I92" s="120"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
       <c r="J92" t="s" s="38">
         <v>1541</v>
       </c>
-      <c r="K92" s="120"/>
-      <c r="L92" s="120"/>
-      <c r="M92" s="120"/>
-      <c r="N92" s="120"/>
-      <c r="O92" s="120"/>
-      <c r="P92" s="120"/>
-      <c r="Q92" s="120"/>
-      <c r="R92" s="120"/>
-      <c r="S92" s="123"/>
-      <c r="T92" s="120"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="122"/>
+      <c r="T92" s="11"/>
       <c r="U92" t="s" s="38">
         <v>1283</v>
       </c>
       <c r="V92" t="s" s="38">
         <v>1540</v>
       </c>
-      <c r="W92" t="s" s="122">
+      <c r="W92" t="s" s="121">
         <v>1535</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="A93" t="s" s="124">
+      <c r="A93" t="s" s="123">
         <v>1283</v>
       </c>
-      <c r="B93" t="s" s="125">
+      <c r="B93" t="s" s="124">
         <v>1542</v>
       </c>
-      <c r="C93" t="s" s="125">
+      <c r="C93" t="s" s="124">
         <v>1535</v>
       </c>
-      <c r="D93" t="s" s="126">
+      <c r="D93" t="s" s="125">
         <v>1535</v>
       </c>
-      <c r="E93" s="127"/>
-      <c r="F93" s="127"/>
-      <c r="G93" s="127"/>
-      <c r="H93" s="127"/>
-      <c r="I93" s="127"/>
-      <c r="J93" t="s" s="125">
+      <c r="E93" s="126"/>
+      <c r="F93" s="126"/>
+      <c r="G93" s="126"/>
+      <c r="H93" s="126"/>
+      <c r="I93" s="126"/>
+      <c r="J93" t="s" s="124">
         <v>1543</v>
       </c>
-      <c r="K93" s="127"/>
-      <c r="L93" s="127"/>
-      <c r="M93" s="127"/>
-      <c r="N93" s="127"/>
-      <c r="O93" s="127"/>
-      <c r="P93" s="127"/>
-      <c r="Q93" s="127"/>
-      <c r="R93" s="127"/>
-      <c r="S93" s="128"/>
-      <c r="T93" s="127"/>
-      <c r="U93" t="s" s="125">
+      <c r="K93" s="126"/>
+      <c r="L93" s="126"/>
+      <c r="M93" s="126"/>
+      <c r="N93" s="126"/>
+      <c r="O93" s="126"/>
+      <c r="P93" s="126"/>
+      <c r="Q93" s="126"/>
+      <c r="R93" s="126"/>
+      <c r="S93" s="127"/>
+      <c r="T93" s="126"/>
+      <c r="U93" t="s" s="124">
         <v>1283</v>
       </c>
-      <c r="V93" t="s" s="125">
+      <c r="V93" t="s" s="124">
         <v>1542</v>
       </c>
-      <c r="W93" t="s" s="129">
+      <c r="W93" t="s" s="128">
         <v>1535</v>
       </c>
     </row>
@@ -24828,7 +24830,7 @@
         <v>1589</v>
       </c>
       <c r="P112" s="34"/>
-      <c r="Q112" t="b" s="130">
+      <c r="Q112" t="b" s="129">
         <f t="shared" si="1" ref="Q112:Q216">TRUE()</f>
         <v>1</v>
       </c>
@@ -25319,7 +25321,7 @@
         <v>1589</v>
       </c>
       <c r="P124" s="34"/>
-      <c r="Q124" t="b" s="130">
+      <c r="Q124" t="b" s="129">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -25725,7 +25727,7 @@
       <c r="B135" t="s" s="32">
         <v>1643</v>
       </c>
-      <c r="C135" t="b" s="130">
+      <c r="C135" t="b" s="129">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -25735,7 +25737,7 @@
       <c r="G135" s="34"/>
       <c r="H135" s="34"/>
       <c r="I135" s="34"/>
-      <c r="J135" t="s" s="131">
+      <c r="J135" t="s" s="130">
         <v>1644</v>
       </c>
       <c r="K135" s="34"/>
@@ -25763,7 +25765,7 @@
       <c r="B136" t="s" s="32">
         <v>1645</v>
       </c>
-      <c r="C136" t="b" s="130">
+      <c r="C136" t="b" s="129">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -25773,7 +25775,7 @@
       <c r="G136" s="34"/>
       <c r="H136" s="34"/>
       <c r="I136" s="34"/>
-      <c r="J136" t="s" s="131">
+      <c r="J136" t="s" s="130">
         <v>1646</v>
       </c>
       <c r="K136" s="34"/>
@@ -25801,7 +25803,7 @@
       <c r="B137" t="s" s="32">
         <v>1647</v>
       </c>
-      <c r="C137" t="b" s="130">
+      <c r="C137" t="b" s="129">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -25811,7 +25813,7 @@
       <c r="G137" s="34"/>
       <c r="H137" s="34"/>
       <c r="I137" s="34"/>
-      <c r="J137" t="s" s="131">
+      <c r="J137" t="s" s="130">
         <v>1648</v>
       </c>
       <c r="K137" s="34"/>
@@ -25839,7 +25841,7 @@
       <c r="B138" t="s" s="32">
         <v>1649</v>
       </c>
-      <c r="C138" t="b" s="130">
+      <c r="C138" t="b" s="129">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -25849,7 +25851,7 @@
       <c r="G138" s="34"/>
       <c r="H138" s="34"/>
       <c r="I138" s="34"/>
-      <c r="J138" t="s" s="131">
+      <c r="J138" t="s" s="130">
         <v>1650</v>
       </c>
       <c r="K138" s="34"/>
@@ -25877,7 +25879,7 @@
       <c r="B139" t="s" s="32">
         <v>1651</v>
       </c>
-      <c r="C139" t="b" s="130">
+      <c r="C139" t="b" s="129">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -25887,7 +25889,7 @@
       <c r="G139" s="34"/>
       <c r="H139" s="34"/>
       <c r="I139" s="34"/>
-      <c r="J139" t="s" s="131">
+      <c r="J139" t="s" s="130">
         <v>1652</v>
       </c>
       <c r="K139" s="34"/>
@@ -25926,7 +25928,7 @@
       <c r="G140" s="34"/>
       <c r="H140" s="34"/>
       <c r="I140" s="34"/>
-      <c r="J140" t="s" s="131">
+      <c r="J140" t="s" s="130">
         <v>1638</v>
       </c>
       <c r="K140" s="34"/>
@@ -25963,7 +25965,7 @@
       <c r="G141" s="40"/>
       <c r="H141" s="40"/>
       <c r="I141" s="40"/>
-      <c r="J141" t="s" s="132">
+      <c r="J141" t="s" s="131">
         <v>1656</v>
       </c>
       <c r="K141" s="40"/>
@@ -25998,7 +26000,7 @@
       <c r="G142" s="57"/>
       <c r="H142" s="57"/>
       <c r="I142" s="57"/>
-      <c r="J142" s="133"/>
+      <c r="J142" s="132"/>
       <c r="K142" s="57"/>
       <c r="L142" s="57"/>
       <c r="M142" s="57"/>
@@ -26347,7 +26349,7 @@
       <c r="E151" s="34"/>
       <c r="F151" s="34"/>
       <c r="G151" s="34"/>
-      <c r="H151" t="s" s="134">
+      <c r="H151" t="s" s="133">
         <v>1682</v>
       </c>
       <c r="I151" t="s" s="36">
@@ -26389,19 +26391,19 @@
       </c>
       <c r="E152" s="34"/>
       <c r="F152" s="94"/>
-      <c r="G152" s="135"/>
+      <c r="G152" s="134"/>
       <c r="H152" t="s" s="38">
         <v>1377</v>
       </c>
       <c r="I152" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J152" t="s" s="136">
+      <c r="J152" t="s" s="135">
         <v>1687</v>
       </c>
-      <c r="K152" s="137"/>
-      <c r="L152" s="137"/>
-      <c r="M152" s="137"/>
+      <c r="K152" s="136"/>
+      <c r="L152" s="136"/>
+      <c r="M152" s="136"/>
       <c r="N152" s="34"/>
       <c r="O152" s="34"/>
       <c r="P152" s="34"/>
@@ -26438,9 +26440,9 @@
       <c r="J153" t="s" s="44">
         <v>1689</v>
       </c>
-      <c r="K153" s="137"/>
-      <c r="L153" s="137"/>
-      <c r="M153" s="137"/>
+      <c r="K153" s="136"/>
+      <c r="L153" s="136"/>
+      <c r="M153" s="136"/>
       <c r="N153" s="34"/>
       <c r="O153" s="34"/>
       <c r="P153" s="34"/>
@@ -26502,7 +26504,7 @@
       <c r="B155" t="s" s="32">
         <v>1693</v>
       </c>
-      <c r="C155" t="b" s="138">
+      <c r="C155" t="b" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -26557,7 +26559,7 @@
         <v>1696</v>
       </c>
       <c r="K156" s="34"/>
-      <c r="L156" s="139"/>
+      <c r="L156" s="138"/>
       <c r="M156" s="34"/>
       <c r="N156" s="34"/>
       <c r="O156" s="34"/>
@@ -26581,7 +26583,7 @@
       <c r="B157" t="s" s="32">
         <v>1697</v>
       </c>
-      <c r="C157" t="b" s="138">
+      <c r="C157" t="b" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -26597,7 +26599,7 @@
         <v>1699</v>
       </c>
       <c r="K157" s="34"/>
-      <c r="L157" s="139"/>
+      <c r="L157" s="138"/>
       <c r="M157" s="34"/>
       <c r="N157" s="34"/>
       <c r="O157" s="34"/>
@@ -26621,7 +26623,7 @@
       <c r="B158" t="s" s="32">
         <v>1701</v>
       </c>
-      <c r="C158" t="b" s="138">
+      <c r="C158" t="b" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -26637,7 +26639,7 @@
         <v>1702</v>
       </c>
       <c r="K158" s="34"/>
-      <c r="L158" s="139"/>
+      <c r="L158" s="138"/>
       <c r="M158" s="34"/>
       <c r="N158" s="34"/>
       <c r="O158" s="34"/>
@@ -26661,7 +26663,7 @@
       <c r="B159" t="s" s="32">
         <v>1703</v>
       </c>
-      <c r="C159" t="b" s="138">
+      <c r="C159" t="b" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -26709,7 +26711,7 @@
       </c>
       <c r="E160" s="40"/>
       <c r="F160" s="40"/>
-      <c r="G160" s="140"/>
+      <c r="G160" s="139"/>
       <c r="H160" t="s" s="38">
         <v>1377</v>
       </c>
@@ -26806,34 +26808,34 @@
       <c r="W162" s="34"/>
     </row>
     <row r="163" ht="13.75" customHeight="1">
-      <c r="A163" t="s" s="141">
+      <c r="A163" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B163" t="s" s="141">
+      <c r="B163" t="s" s="140">
         <v>1711</v>
       </c>
-      <c r="C163" t="b" s="142">
+      <c r="C163" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D163" s="143"/>
-      <c r="E163" s="144"/>
-      <c r="F163" t="s" s="145">
+      <c r="D163" s="142"/>
+      <c r="E163" s="143"/>
+      <c r="F163" t="s" s="144">
         <v>1712</v>
       </c>
-      <c r="G163" s="146"/>
-      <c r="H163" s="147"/>
-      <c r="I163" s="143"/>
-      <c r="J163" t="s" s="141">
+      <c r="G163" s="145"/>
+      <c r="H163" s="146"/>
+      <c r="I163" s="142"/>
+      <c r="J163" t="s" s="140">
         <v>1713</v>
       </c>
-      <c r="K163" s="143"/>
-      <c r="L163" s="143"/>
-      <c r="M163" s="143"/>
-      <c r="N163" s="143"/>
-      <c r="O163" s="143"/>
-      <c r="P163" s="143"/>
-      <c r="Q163" s="143"/>
+      <c r="K163" s="142"/>
+      <c r="L163" s="142"/>
+      <c r="M163" s="142"/>
+      <c r="N163" s="142"/>
+      <c r="O163" s="142"/>
+      <c r="P163" s="142"/>
+      <c r="Q163" s="142"/>
       <c r="R163" t="s" s="32">
         <v>1266</v>
       </c>
@@ -26846,34 +26848,34 @@
       <c r="W163" s="34"/>
     </row>
     <row r="164" ht="13.75" customHeight="1">
-      <c r="A164" t="s" s="141">
+      <c r="A164" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B164" t="s" s="141">
+      <c r="B164" t="s" s="140">
         <v>1714</v>
       </c>
-      <c r="C164" t="b" s="142">
+      <c r="C164" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D164" s="143"/>
-      <c r="E164" s="143"/>
-      <c r="F164" t="s" s="148">
+      <c r="D164" s="142"/>
+      <c r="E164" s="142"/>
+      <c r="F164" t="s" s="147">
         <v>1715</v>
       </c>
-      <c r="G164" s="149"/>
-      <c r="H164" s="143"/>
-      <c r="I164" s="143"/>
-      <c r="J164" t="s" s="141">
+      <c r="G164" s="148"/>
+      <c r="H164" s="142"/>
+      <c r="I164" s="142"/>
+      <c r="J164" t="s" s="140">
         <v>1716</v>
       </c>
-      <c r="K164" s="143"/>
-      <c r="L164" s="143"/>
-      <c r="M164" s="143"/>
-      <c r="N164" s="143"/>
-      <c r="O164" s="143"/>
-      <c r="P164" s="143"/>
-      <c r="Q164" s="143"/>
+      <c r="K164" s="142"/>
+      <c r="L164" s="142"/>
+      <c r="M164" s="142"/>
+      <c r="N164" s="142"/>
+      <c r="O164" s="142"/>
+      <c r="P164" s="142"/>
+      <c r="Q164" s="142"/>
       <c r="R164" t="s" s="32">
         <v>1266</v>
       </c>
@@ -26886,34 +26888,34 @@
       <c r="W164" s="34"/>
     </row>
     <row r="165" ht="13.75" customHeight="1">
-      <c r="A165" t="s" s="141">
+      <c r="A165" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B165" t="s" s="141">
+      <c r="B165" t="s" s="140">
         <v>1717</v>
       </c>
-      <c r="C165" t="b" s="142">
+      <c r="C165" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D165" s="143"/>
-      <c r="E165" s="143"/>
-      <c r="F165" t="s" s="141">
+      <c r="D165" s="142"/>
+      <c r="E165" s="142"/>
+      <c r="F165" t="s" s="140">
         <v>1718</v>
       </c>
-      <c r="G165" s="143"/>
-      <c r="H165" s="143"/>
-      <c r="I165" s="143"/>
-      <c r="J165" t="s" s="141">
+      <c r="G165" s="142"/>
+      <c r="H165" s="142"/>
+      <c r="I165" s="142"/>
+      <c r="J165" t="s" s="140">
         <v>1719</v>
       </c>
-      <c r="K165" s="143"/>
-      <c r="L165" s="143"/>
-      <c r="M165" s="143"/>
-      <c r="N165" s="143"/>
-      <c r="O165" s="143"/>
-      <c r="P165" s="143"/>
-      <c r="Q165" s="143"/>
+      <c r="K165" s="142"/>
+      <c r="L165" s="142"/>
+      <c r="M165" s="142"/>
+      <c r="N165" s="142"/>
+      <c r="O165" s="142"/>
+      <c r="P165" s="142"/>
+      <c r="Q165" s="142"/>
       <c r="R165" t="s" s="32">
         <v>1266</v>
       </c>
@@ -26926,34 +26928,34 @@
       <c r="W165" s="34"/>
     </row>
     <row r="166" ht="13.75" customHeight="1">
-      <c r="A166" t="s" s="141">
+      <c r="A166" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B166" t="s" s="141">
+      <c r="B166" t="s" s="140">
         <v>1720</v>
       </c>
-      <c r="C166" t="b" s="142">
+      <c r="C166" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D166" s="143"/>
-      <c r="E166" s="143"/>
-      <c r="F166" t="s" s="141">
+      <c r="D166" s="142"/>
+      <c r="E166" s="142"/>
+      <c r="F166" t="s" s="140">
         <v>1721</v>
       </c>
-      <c r="G166" s="143"/>
-      <c r="H166" s="143"/>
-      <c r="I166" s="143"/>
-      <c r="J166" t="s" s="141">
+      <c r="G166" s="142"/>
+      <c r="H166" s="142"/>
+      <c r="I166" s="142"/>
+      <c r="J166" t="s" s="140">
         <v>1722</v>
       </c>
-      <c r="K166" s="143"/>
-      <c r="L166" s="143"/>
-      <c r="M166" s="143"/>
-      <c r="N166" s="143"/>
-      <c r="O166" s="143"/>
-      <c r="P166" s="143"/>
-      <c r="Q166" s="143"/>
+      <c r="K166" s="142"/>
+      <c r="L166" s="142"/>
+      <c r="M166" s="142"/>
+      <c r="N166" s="142"/>
+      <c r="O166" s="142"/>
+      <c r="P166" s="142"/>
+      <c r="Q166" s="142"/>
       <c r="R166" t="s" s="32">
         <v>1266</v>
       </c>
@@ -26966,34 +26968,34 @@
       <c r="W166" s="34"/>
     </row>
     <row r="167" ht="13.75" customHeight="1">
-      <c r="A167" t="s" s="141">
+      <c r="A167" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B167" t="s" s="141">
+      <c r="B167" t="s" s="140">
         <v>1723</v>
       </c>
-      <c r="C167" t="b" s="142">
+      <c r="C167" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D167" s="143"/>
-      <c r="E167" s="143"/>
-      <c r="F167" t="s" s="141">
+      <c r="D167" s="142"/>
+      <c r="E167" s="142"/>
+      <c r="F167" t="s" s="140">
         <v>1724</v>
       </c>
-      <c r="G167" s="143"/>
-      <c r="H167" s="143"/>
-      <c r="I167" s="143"/>
-      <c r="J167" t="s" s="141">
+      <c r="G167" s="142"/>
+      <c r="H167" s="142"/>
+      <c r="I167" s="142"/>
+      <c r="J167" t="s" s="140">
         <v>1725</v>
       </c>
-      <c r="K167" s="143"/>
-      <c r="L167" s="143"/>
-      <c r="M167" s="143"/>
-      <c r="N167" s="143"/>
-      <c r="O167" s="143"/>
-      <c r="P167" s="143"/>
-      <c r="Q167" s="143"/>
+      <c r="K167" s="142"/>
+      <c r="L167" s="142"/>
+      <c r="M167" s="142"/>
+      <c r="N167" s="142"/>
+      <c r="O167" s="142"/>
+      <c r="P167" s="142"/>
+      <c r="Q167" s="142"/>
       <c r="R167" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27006,34 +27008,34 @@
       <c r="W167" s="34"/>
     </row>
     <row r="168" ht="13.75" customHeight="1">
-      <c r="A168" t="s" s="141">
+      <c r="A168" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B168" t="s" s="141">
+      <c r="B168" t="s" s="140">
         <v>1726</v>
       </c>
-      <c r="C168" t="b" s="142">
+      <c r="C168" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D168" s="143"/>
-      <c r="E168" s="143"/>
-      <c r="F168" t="s" s="141">
+      <c r="D168" s="142"/>
+      <c r="E168" s="142"/>
+      <c r="F168" t="s" s="140">
         <v>1727</v>
       </c>
-      <c r="G168" s="143"/>
-      <c r="H168" s="143"/>
-      <c r="I168" s="143"/>
-      <c r="J168" t="s" s="141">
+      <c r="G168" s="142"/>
+      <c r="H168" s="142"/>
+      <c r="I168" s="142"/>
+      <c r="J168" t="s" s="140">
         <v>1728</v>
       </c>
-      <c r="K168" s="143"/>
-      <c r="L168" s="143"/>
-      <c r="M168" s="143"/>
-      <c r="N168" s="143"/>
-      <c r="O168" s="143"/>
-      <c r="P168" s="143"/>
-      <c r="Q168" s="143"/>
+      <c r="K168" s="142"/>
+      <c r="L168" s="142"/>
+      <c r="M168" s="142"/>
+      <c r="N168" s="142"/>
+      <c r="O168" s="142"/>
+      <c r="P168" s="142"/>
+      <c r="Q168" s="142"/>
       <c r="R168" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27046,34 +27048,34 @@
       <c r="W168" s="34"/>
     </row>
     <row r="169" ht="13.75" customHeight="1">
-      <c r="A169" t="s" s="141">
+      <c r="A169" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B169" t="s" s="141">
+      <c r="B169" t="s" s="140">
         <v>1729</v>
       </c>
-      <c r="C169" t="b" s="142">
+      <c r="C169" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D169" s="143"/>
-      <c r="E169" s="143"/>
-      <c r="F169" t="s" s="141">
+      <c r="D169" s="142"/>
+      <c r="E169" s="142"/>
+      <c r="F169" t="s" s="140">
         <v>1730</v>
       </c>
-      <c r="G169" s="143"/>
-      <c r="H169" s="143"/>
-      <c r="I169" s="143"/>
-      <c r="J169" t="s" s="141">
+      <c r="G169" s="142"/>
+      <c r="H169" s="142"/>
+      <c r="I169" s="142"/>
+      <c r="J169" t="s" s="140">
         <v>1731</v>
       </c>
-      <c r="K169" s="143"/>
-      <c r="L169" s="143"/>
-      <c r="M169" s="143"/>
-      <c r="N169" s="143"/>
-      <c r="O169" s="143"/>
-      <c r="P169" s="143"/>
-      <c r="Q169" s="143"/>
+      <c r="K169" s="142"/>
+      <c r="L169" s="142"/>
+      <c r="M169" s="142"/>
+      <c r="N169" s="142"/>
+      <c r="O169" s="142"/>
+      <c r="P169" s="142"/>
+      <c r="Q169" s="142"/>
       <c r="R169" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27086,34 +27088,34 @@
       <c r="W169" s="34"/>
     </row>
     <row r="170" ht="13.75" customHeight="1">
-      <c r="A170" t="s" s="141">
+      <c r="A170" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B170" t="s" s="141">
+      <c r="B170" t="s" s="140">
         <v>1732</v>
       </c>
-      <c r="C170" t="b" s="142">
+      <c r="C170" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D170" s="143"/>
-      <c r="E170" s="143"/>
-      <c r="F170" t="s" s="141">
+      <c r="D170" s="142"/>
+      <c r="E170" s="142"/>
+      <c r="F170" t="s" s="140">
         <v>1733</v>
       </c>
-      <c r="G170" s="143"/>
-      <c r="H170" s="143"/>
-      <c r="I170" s="143"/>
-      <c r="J170" t="s" s="141">
+      <c r="G170" s="142"/>
+      <c r="H170" s="142"/>
+      <c r="I170" s="142"/>
+      <c r="J170" t="s" s="140">
         <v>1734</v>
       </c>
-      <c r="K170" s="143"/>
-      <c r="L170" s="143"/>
-      <c r="M170" s="143"/>
-      <c r="N170" s="143"/>
-      <c r="O170" s="143"/>
-      <c r="P170" s="143"/>
-      <c r="Q170" s="143"/>
+      <c r="K170" s="142"/>
+      <c r="L170" s="142"/>
+      <c r="M170" s="142"/>
+      <c r="N170" s="142"/>
+      <c r="O170" s="142"/>
+      <c r="P170" s="142"/>
+      <c r="Q170" s="142"/>
       <c r="R170" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27126,34 +27128,34 @@
       <c r="W170" s="34"/>
     </row>
     <row r="171" ht="13.75" customHeight="1">
-      <c r="A171" t="s" s="141">
+      <c r="A171" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B171" t="s" s="141">
+      <c r="B171" t="s" s="140">
         <v>1735</v>
       </c>
-      <c r="C171" t="b" s="142">
+      <c r="C171" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D171" s="143"/>
-      <c r="E171" s="143"/>
-      <c r="F171" t="s" s="141">
+      <c r="D171" s="142"/>
+      <c r="E171" s="142"/>
+      <c r="F171" t="s" s="140">
         <v>1736</v>
       </c>
-      <c r="G171" s="143"/>
-      <c r="H171" s="143"/>
-      <c r="I171" s="143"/>
-      <c r="J171" t="s" s="141">
+      <c r="G171" s="142"/>
+      <c r="H171" s="142"/>
+      <c r="I171" s="142"/>
+      <c r="J171" t="s" s="140">
         <v>1737</v>
       </c>
-      <c r="K171" s="143"/>
-      <c r="L171" s="143"/>
-      <c r="M171" s="143"/>
-      <c r="N171" s="143"/>
-      <c r="O171" s="143"/>
-      <c r="P171" s="143"/>
-      <c r="Q171" s="143"/>
+      <c r="K171" s="142"/>
+      <c r="L171" s="142"/>
+      <c r="M171" s="142"/>
+      <c r="N171" s="142"/>
+      <c r="O171" s="142"/>
+      <c r="P171" s="142"/>
+      <c r="Q171" s="142"/>
       <c r="R171" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27166,34 +27168,34 @@
       <c r="W171" s="34"/>
     </row>
     <row r="172" ht="13.75" customHeight="1">
-      <c r="A172" t="s" s="141">
+      <c r="A172" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B172" t="s" s="141">
+      <c r="B172" t="s" s="140">
         <v>1738</v>
       </c>
-      <c r="C172" t="b" s="142">
+      <c r="C172" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D172" s="143"/>
-      <c r="E172" s="143"/>
-      <c r="F172" t="s" s="141">
+      <c r="D172" s="142"/>
+      <c r="E172" s="142"/>
+      <c r="F172" t="s" s="140">
         <v>1739</v>
       </c>
-      <c r="G172" s="143"/>
-      <c r="H172" s="143"/>
-      <c r="I172" s="143"/>
-      <c r="J172" t="s" s="141">
+      <c r="G172" s="142"/>
+      <c r="H172" s="142"/>
+      <c r="I172" s="142"/>
+      <c r="J172" t="s" s="140">
         <v>1740</v>
       </c>
-      <c r="K172" s="143"/>
-      <c r="L172" s="143"/>
-      <c r="M172" s="143"/>
-      <c r="N172" s="143"/>
-      <c r="O172" s="143"/>
-      <c r="P172" s="143"/>
-      <c r="Q172" s="143"/>
+      <c r="K172" s="142"/>
+      <c r="L172" s="142"/>
+      <c r="M172" s="142"/>
+      <c r="N172" s="142"/>
+      <c r="O172" s="142"/>
+      <c r="P172" s="142"/>
+      <c r="Q172" s="142"/>
       <c r="R172" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27206,34 +27208,34 @@
       <c r="W172" s="34"/>
     </row>
     <row r="173" ht="13.75" customHeight="1">
-      <c r="A173" t="s" s="141">
+      <c r="A173" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B173" t="s" s="141">
+      <c r="B173" t="s" s="140">
         <v>1741</v>
       </c>
-      <c r="C173" t="b" s="142">
+      <c r="C173" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D173" s="143"/>
-      <c r="E173" s="143"/>
-      <c r="F173" t="s" s="141">
+      <c r="D173" s="142"/>
+      <c r="E173" s="142"/>
+      <c r="F173" t="s" s="140">
         <v>1742</v>
       </c>
-      <c r="G173" s="143"/>
-      <c r="H173" s="143"/>
-      <c r="I173" s="143"/>
-      <c r="J173" t="s" s="150">
+      <c r="G173" s="142"/>
+      <c r="H173" s="142"/>
+      <c r="I173" s="142"/>
+      <c r="J173" t="s" s="149">
         <v>1743</v>
       </c>
-      <c r="K173" s="143"/>
-      <c r="L173" s="143"/>
-      <c r="M173" s="143"/>
-      <c r="N173" s="143"/>
-      <c r="O173" s="143"/>
-      <c r="P173" s="143"/>
-      <c r="Q173" s="143"/>
+      <c r="K173" s="142"/>
+      <c r="L173" s="142"/>
+      <c r="M173" s="142"/>
+      <c r="N173" s="142"/>
+      <c r="O173" s="142"/>
+      <c r="P173" s="142"/>
+      <c r="Q173" s="142"/>
       <c r="R173" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27246,34 +27248,34 @@
       <c r="W173" s="34"/>
     </row>
     <row r="174" ht="13.75" customHeight="1">
-      <c r="A174" t="s" s="141">
+      <c r="A174" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B174" t="s" s="141">
+      <c r="B174" t="s" s="140">
         <v>1744</v>
       </c>
-      <c r="C174" t="b" s="142">
+      <c r="C174" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D174" s="143"/>
-      <c r="E174" s="144"/>
-      <c r="F174" t="s" s="151">
+      <c r="D174" s="142"/>
+      <c r="E174" s="143"/>
+      <c r="F174" t="s" s="150">
         <v>1745</v>
       </c>
-      <c r="G174" s="152"/>
-      <c r="H174" s="147"/>
-      <c r="I174" s="143"/>
-      <c r="J174" t="s" s="148">
+      <c r="G174" s="151"/>
+      <c r="H174" s="146"/>
+      <c r="I174" s="142"/>
+      <c r="J174" t="s" s="147">
         <v>1746</v>
       </c>
-      <c r="K174" s="143"/>
-      <c r="L174" s="143"/>
-      <c r="M174" s="143"/>
-      <c r="N174" s="143"/>
-      <c r="O174" s="143"/>
-      <c r="P174" s="143"/>
-      <c r="Q174" s="143"/>
+      <c r="K174" s="142"/>
+      <c r="L174" s="142"/>
+      <c r="M174" s="142"/>
+      <c r="N174" s="142"/>
+      <c r="O174" s="142"/>
+      <c r="P174" s="142"/>
+      <c r="Q174" s="142"/>
       <c r="R174" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27286,34 +27288,34 @@
       <c r="W174" s="34"/>
     </row>
     <row r="175" ht="13.75" customHeight="1">
-      <c r="A175" t="s" s="141">
+      <c r="A175" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B175" t="s" s="141">
+      <c r="B175" t="s" s="140">
         <v>1747</v>
       </c>
-      <c r="C175" t="b" s="142">
+      <c r="C175" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D175" s="143"/>
-      <c r="E175" s="143"/>
-      <c r="F175" t="s" s="148">
+      <c r="D175" s="142"/>
+      <c r="E175" s="142"/>
+      <c r="F175" t="s" s="147">
         <v>1748</v>
       </c>
-      <c r="G175" s="149"/>
-      <c r="H175" s="143"/>
-      <c r="I175" s="143"/>
-      <c r="J175" t="s" s="141">
+      <c r="G175" s="148"/>
+      <c r="H175" s="142"/>
+      <c r="I175" s="142"/>
+      <c r="J175" t="s" s="140">
         <v>1749</v>
       </c>
-      <c r="K175" s="143"/>
-      <c r="L175" s="143"/>
-      <c r="M175" s="143"/>
-      <c r="N175" s="143"/>
-      <c r="O175" s="143"/>
-      <c r="P175" s="143"/>
-      <c r="Q175" s="143"/>
+      <c r="K175" s="142"/>
+      <c r="L175" s="142"/>
+      <c r="M175" s="142"/>
+      <c r="N175" s="142"/>
+      <c r="O175" s="142"/>
+      <c r="P175" s="142"/>
+      <c r="Q175" s="142"/>
       <c r="R175" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27326,34 +27328,34 @@
       <c r="W175" s="34"/>
     </row>
     <row r="176" ht="13.75" customHeight="1">
-      <c r="A176" t="s" s="141">
+      <c r="A176" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B176" t="s" s="141">
+      <c r="B176" t="s" s="140">
         <v>1750</v>
       </c>
-      <c r="C176" t="b" s="142">
+      <c r="C176" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D176" s="143"/>
-      <c r="E176" s="143"/>
-      <c r="F176" t="s" s="141">
+      <c r="D176" s="142"/>
+      <c r="E176" s="142"/>
+      <c r="F176" t="s" s="140">
         <v>1751</v>
       </c>
-      <c r="G176" s="143"/>
-      <c r="H176" s="143"/>
-      <c r="I176" s="143"/>
-      <c r="J176" t="s" s="141">
+      <c r="G176" s="142"/>
+      <c r="H176" s="142"/>
+      <c r="I176" s="142"/>
+      <c r="J176" t="s" s="140">
         <v>1752</v>
       </c>
-      <c r="K176" s="143"/>
-      <c r="L176" s="143"/>
-      <c r="M176" s="143"/>
-      <c r="N176" s="143"/>
-      <c r="O176" s="143"/>
-      <c r="P176" s="143"/>
-      <c r="Q176" s="143"/>
+      <c r="K176" s="142"/>
+      <c r="L176" s="142"/>
+      <c r="M176" s="142"/>
+      <c r="N176" s="142"/>
+      <c r="O176" s="142"/>
+      <c r="P176" s="142"/>
+      <c r="Q176" s="142"/>
       <c r="R176" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27366,34 +27368,34 @@
       <c r="W176" s="34"/>
     </row>
     <row r="177" ht="13.75" customHeight="1">
-      <c r="A177" t="s" s="141">
+      <c r="A177" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B177" t="s" s="141">
+      <c r="B177" t="s" s="140">
         <v>1753</v>
       </c>
-      <c r="C177" t="b" s="142">
+      <c r="C177" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D177" s="143"/>
-      <c r="E177" s="143"/>
-      <c r="F177" t="s" s="141">
+      <c r="D177" s="142"/>
+      <c r="E177" s="142"/>
+      <c r="F177" t="s" s="140">
         <v>1754</v>
       </c>
-      <c r="G177" s="143"/>
-      <c r="H177" s="143"/>
-      <c r="I177" s="143"/>
-      <c r="J177" t="s" s="141">
+      <c r="G177" s="142"/>
+      <c r="H177" s="142"/>
+      <c r="I177" s="142"/>
+      <c r="J177" t="s" s="140">
         <v>1755</v>
       </c>
-      <c r="K177" s="143"/>
-      <c r="L177" s="143"/>
-      <c r="M177" s="143"/>
-      <c r="N177" s="143"/>
-      <c r="O177" s="143"/>
-      <c r="P177" s="143"/>
-      <c r="Q177" s="143"/>
+      <c r="K177" s="142"/>
+      <c r="L177" s="142"/>
+      <c r="M177" s="142"/>
+      <c r="N177" s="142"/>
+      <c r="O177" s="142"/>
+      <c r="P177" s="142"/>
+      <c r="Q177" s="142"/>
       <c r="R177" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27406,34 +27408,34 @@
       <c r="W177" s="34"/>
     </row>
     <row r="178" ht="13.75" customHeight="1">
-      <c r="A178" t="s" s="141">
+      <c r="A178" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B178" t="s" s="141">
+      <c r="B178" t="s" s="140">
         <v>1756</v>
       </c>
-      <c r="C178" t="b" s="142">
+      <c r="C178" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D178" s="143"/>
-      <c r="E178" s="143"/>
-      <c r="F178" t="s" s="141">
+      <c r="D178" s="142"/>
+      <c r="E178" s="142"/>
+      <c r="F178" t="s" s="140">
         <v>1757</v>
       </c>
-      <c r="G178" s="143"/>
-      <c r="H178" s="143"/>
-      <c r="I178" s="143"/>
-      <c r="J178" t="s" s="141">
+      <c r="G178" s="142"/>
+      <c r="H178" s="142"/>
+      <c r="I178" s="142"/>
+      <c r="J178" t="s" s="140">
         <v>1758</v>
       </c>
-      <c r="K178" s="143"/>
-      <c r="L178" s="143"/>
-      <c r="M178" s="143"/>
-      <c r="N178" s="143"/>
-      <c r="O178" s="143"/>
-      <c r="P178" s="143"/>
-      <c r="Q178" s="143"/>
+      <c r="K178" s="142"/>
+      <c r="L178" s="142"/>
+      <c r="M178" s="142"/>
+      <c r="N178" s="142"/>
+      <c r="O178" s="142"/>
+      <c r="P178" s="142"/>
+      <c r="Q178" s="142"/>
       <c r="R178" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27446,34 +27448,34 @@
       <c r="W178" s="34"/>
     </row>
     <row r="179" ht="13.75" customHeight="1">
-      <c r="A179" t="s" s="141">
+      <c r="A179" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B179" t="s" s="141">
+      <c r="B179" t="s" s="140">
         <v>1759</v>
       </c>
-      <c r="C179" t="b" s="142">
+      <c r="C179" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D179" s="143"/>
-      <c r="E179" s="143"/>
-      <c r="F179" t="s" s="141">
+      <c r="D179" s="142"/>
+      <c r="E179" s="142"/>
+      <c r="F179" t="s" s="140">
         <v>1760</v>
       </c>
-      <c r="G179" s="143"/>
-      <c r="H179" s="143"/>
-      <c r="I179" s="143"/>
-      <c r="J179" t="s" s="141">
+      <c r="G179" s="142"/>
+      <c r="H179" s="142"/>
+      <c r="I179" s="142"/>
+      <c r="J179" t="s" s="140">
         <v>1761</v>
       </c>
-      <c r="K179" s="143"/>
-      <c r="L179" s="143"/>
-      <c r="M179" s="143"/>
-      <c r="N179" s="143"/>
-      <c r="O179" s="143"/>
-      <c r="P179" s="143"/>
-      <c r="Q179" s="143"/>
+      <c r="K179" s="142"/>
+      <c r="L179" s="142"/>
+      <c r="M179" s="142"/>
+      <c r="N179" s="142"/>
+      <c r="O179" s="142"/>
+      <c r="P179" s="142"/>
+      <c r="Q179" s="142"/>
       <c r="R179" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27486,34 +27488,34 @@
       <c r="W179" s="34"/>
     </row>
     <row r="180" ht="13.75" customHeight="1">
-      <c r="A180" t="s" s="141">
+      <c r="A180" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B180" t="s" s="141">
+      <c r="B180" t="s" s="140">
         <v>1762</v>
       </c>
-      <c r="C180" t="b" s="142">
+      <c r="C180" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D180" s="143"/>
-      <c r="E180" s="143"/>
-      <c r="F180" t="s" s="141">
+      <c r="D180" s="142"/>
+      <c r="E180" s="142"/>
+      <c r="F180" t="s" s="140">
         <v>1763</v>
       </c>
-      <c r="G180" s="143"/>
-      <c r="H180" s="143"/>
-      <c r="I180" s="143"/>
-      <c r="J180" t="s" s="141">
+      <c r="G180" s="142"/>
+      <c r="H180" s="142"/>
+      <c r="I180" s="142"/>
+      <c r="J180" t="s" s="140">
         <v>1764</v>
       </c>
-      <c r="K180" s="143"/>
-      <c r="L180" s="143"/>
-      <c r="M180" s="143"/>
-      <c r="N180" s="143"/>
-      <c r="O180" s="143"/>
-      <c r="P180" s="143"/>
-      <c r="Q180" s="143"/>
+      <c r="K180" s="142"/>
+      <c r="L180" s="142"/>
+      <c r="M180" s="142"/>
+      <c r="N180" s="142"/>
+      <c r="O180" s="142"/>
+      <c r="P180" s="142"/>
+      <c r="Q180" s="142"/>
       <c r="R180" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27526,34 +27528,34 @@
       <c r="W180" s="34"/>
     </row>
     <row r="181" ht="13.75" customHeight="1">
-      <c r="A181" t="s" s="141">
+      <c r="A181" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B181" t="s" s="141">
+      <c r="B181" t="s" s="140">
         <v>1765</v>
       </c>
-      <c r="C181" t="b" s="142">
+      <c r="C181" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D181" s="143"/>
-      <c r="E181" s="143"/>
-      <c r="F181" t="s" s="141">
+      <c r="D181" s="142"/>
+      <c r="E181" s="142"/>
+      <c r="F181" t="s" s="140">
         <v>1766</v>
       </c>
-      <c r="G181" s="143"/>
-      <c r="H181" s="143"/>
-      <c r="I181" s="143"/>
-      <c r="J181" t="s" s="141">
+      <c r="G181" s="142"/>
+      <c r="H181" s="142"/>
+      <c r="I181" s="142"/>
+      <c r="J181" t="s" s="140">
         <v>1767</v>
       </c>
-      <c r="K181" s="143"/>
-      <c r="L181" s="143"/>
-      <c r="M181" s="143"/>
-      <c r="N181" s="143"/>
-      <c r="O181" s="143"/>
-      <c r="P181" s="143"/>
-      <c r="Q181" s="143"/>
+      <c r="K181" s="142"/>
+      <c r="L181" s="142"/>
+      <c r="M181" s="142"/>
+      <c r="N181" s="142"/>
+      <c r="O181" s="142"/>
+      <c r="P181" s="142"/>
+      <c r="Q181" s="142"/>
       <c r="R181" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27566,34 +27568,34 @@
       <c r="W181" s="34"/>
     </row>
     <row r="182" ht="13.75" customHeight="1">
-      <c r="A182" t="s" s="141">
+      <c r="A182" t="s" s="140">
         <v>1309</v>
       </c>
-      <c r="B182" t="s" s="141">
+      <c r="B182" t="s" s="140">
         <v>1768</v>
       </c>
-      <c r="C182" t="b" s="142">
+      <c r="C182" t="b" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D182" s="143"/>
-      <c r="E182" s="143"/>
-      <c r="F182" t="s" s="141">
+      <c r="D182" s="142"/>
+      <c r="E182" s="142"/>
+      <c r="F182" t="s" s="140">
         <v>1769</v>
       </c>
-      <c r="G182" s="143"/>
-      <c r="H182" s="143"/>
-      <c r="I182" s="143"/>
-      <c r="J182" t="s" s="141">
+      <c r="G182" s="142"/>
+      <c r="H182" s="142"/>
+      <c r="I182" s="142"/>
+      <c r="J182" t="s" s="140">
         <v>1770</v>
       </c>
-      <c r="K182" s="143"/>
-      <c r="L182" s="143"/>
-      <c r="M182" s="143"/>
-      <c r="N182" s="143"/>
-      <c r="O182" s="143"/>
-      <c r="P182" s="143"/>
-      <c r="Q182" s="143"/>
+      <c r="K182" s="142"/>
+      <c r="L182" s="142"/>
+      <c r="M182" s="142"/>
+      <c r="N182" s="142"/>
+      <c r="O182" s="142"/>
+      <c r="P182" s="142"/>
+      <c r="Q182" s="142"/>
       <c r="R182" t="s" s="32">
         <v>1266</v>
       </c>
@@ -27606,34 +27608,34 @@
       <c r="W182" s="34"/>
     </row>
     <row r="183" ht="13.75" customHeight="1">
-      <c r="A183" t="s" s="150">
+      <c r="A183" t="s" s="149">
         <v>1309</v>
       </c>
-      <c r="B183" t="s" s="150">
+      <c r="B183" t="s" s="149">
         <v>1771</v>
       </c>
-      <c r="C183" t="b" s="153">
+      <c r="C183" t="b" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D183" s="154"/>
-      <c r="E183" s="154"/>
-      <c r="F183" t="s" s="150">
+      <c r="D183" s="153"/>
+      <c r="E183" s="153"/>
+      <c r="F183" t="s" s="149">
         <v>1772</v>
       </c>
-      <c r="G183" s="154"/>
-      <c r="H183" s="154"/>
-      <c r="I183" s="154"/>
-      <c r="J183" t="s" s="150">
+      <c r="G183" s="153"/>
+      <c r="H183" s="153"/>
+      <c r="I183" s="153"/>
+      <c r="J183" t="s" s="149">
         <v>1773</v>
       </c>
-      <c r="K183" s="154"/>
-      <c r="L183" s="154"/>
-      <c r="M183" s="154"/>
-      <c r="N183" s="154"/>
-      <c r="O183" s="154"/>
-      <c r="P183" s="154"/>
-      <c r="Q183" s="154"/>
+      <c r="K183" s="153"/>
+      <c r="L183" s="153"/>
+      <c r="M183" s="153"/>
+      <c r="N183" s="153"/>
+      <c r="O183" s="153"/>
+      <c r="P183" s="153"/>
+      <c r="Q183" s="153"/>
       <c r="R183" t="s" s="36">
         <v>1266</v>
       </c>
@@ -27641,7 +27643,7 @@
         <v>1267</v>
       </c>
       <c r="T183" s="40"/>
-      <c r="U183" s="155"/>
+      <c r="U183" s="154"/>
       <c r="V183" s="34"/>
       <c r="W183" s="34"/>
     </row>
@@ -27682,13 +27684,13 @@
       <c r="A185" t="s" s="67">
         <v>1309</v>
       </c>
-      <c r="B185" t="s" s="145">
+      <c r="B185" t="s" s="144">
         <v>1775</v>
       </c>
       <c r="C185" s="101"/>
       <c r="D185" s="57"/>
       <c r="E185" s="57"/>
-      <c r="F185" t="s" s="145">
+      <c r="F185" t="s" s="144">
         <v>1776</v>
       </c>
       <c r="G185" s="57"/>
@@ -27703,7 +27705,7 @@
       <c r="P185" s="57"/>
       <c r="Q185" s="57"/>
       <c r="R185" s="57"/>
-      <c r="S185" s="156"/>
+      <c r="S185" s="155"/>
       <c r="T185" s="57"/>
       <c r="U185" s="57"/>
       <c r="V185" s="57"/>
@@ -27713,13 +27715,13 @@
       <c r="A186" t="s" s="67">
         <v>1309</v>
       </c>
-      <c r="B186" t="s" s="145">
+      <c r="B186" t="s" s="144">
         <v>1777</v>
       </c>
       <c r="C186" s="101"/>
       <c r="D186" s="57"/>
       <c r="E186" s="57"/>
-      <c r="F186" t="s" s="145">
+      <c r="F186" t="s" s="144">
         <v>1778</v>
       </c>
       <c r="G186" s="57"/>
@@ -27734,7 +27736,7 @@
       <c r="P186" s="57"/>
       <c r="Q186" s="57"/>
       <c r="R186" s="57"/>
-      <c r="S186" s="156"/>
+      <c r="S186" s="155"/>
       <c r="T186" s="57"/>
       <c r="U186" s="57"/>
       <c r="V186" s="57"/>
@@ -27747,7 +27749,7 @@
       <c r="B187" t="s" s="38">
         <v>1779</v>
       </c>
-      <c r="C187" t="b" s="157">
+      <c r="C187" t="b" s="156">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -27770,7 +27772,7 @@
       <c r="P187" s="57"/>
       <c r="Q187" s="57"/>
       <c r="R187" s="57"/>
-      <c r="S187" s="156"/>
+      <c r="S187" s="155"/>
       <c r="T187" s="57"/>
       <c r="U187" s="57"/>
       <c r="V187" s="57"/>
@@ -27783,7 +27785,7 @@
       <c r="B188" t="s" s="38">
         <v>1782</v>
       </c>
-      <c r="C188" t="b" s="157">
+      <c r="C188" t="b" s="156">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -27806,7 +27808,7 @@
       <c r="P188" s="57"/>
       <c r="Q188" s="57"/>
       <c r="R188" s="57"/>
-      <c r="S188" s="156"/>
+      <c r="S188" s="155"/>
       <c r="T188" s="57"/>
       <c r="U188" s="57"/>
       <c r="V188" s="57"/>
@@ -27837,16 +27839,16 @@
       <c r="N189" s="57"/>
       <c r="O189" s="57"/>
       <c r="P189" s="57"/>
-      <c r="Q189" s="158"/>
-      <c r="R189" t="s" s="159">
+      <c r="Q189" s="157"/>
+      <c r="R189" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S189" t="s" s="159">
+      <c r="S189" t="s" s="158">
         <v>1267</v>
       </c>
-      <c r="T189" s="158"/>
-      <c r="U189" s="158"/>
-      <c r="V189" s="160"/>
+      <c r="T189" s="157"/>
+      <c r="U189" s="157"/>
+      <c r="V189" s="159"/>
       <c r="W189" s="31"/>
     </row>
     <row r="190" ht="13.65" customHeight="1">
@@ -27874,15 +27876,15 @@
       <c r="N190" s="57"/>
       <c r="O190" s="57"/>
       <c r="P190" s="57"/>
-      <c r="Q190" s="158"/>
-      <c r="R190" t="s" s="159">
+      <c r="Q190" s="157"/>
+      <c r="R190" t="s" s="158">
         <v>1667</v>
       </c>
-      <c r="S190" t="s" s="159">
+      <c r="S190" t="s" s="158">
         <v>1267</v>
       </c>
-      <c r="T190" s="158"/>
-      <c r="U190" s="158"/>
+      <c r="T190" s="157"/>
+      <c r="U190" s="157"/>
       <c r="V190" s="42"/>
       <c r="W190" s="34"/>
     </row>
@@ -27893,11 +27895,11 @@
       <c r="B191" t="s" s="69">
         <v>1790</v>
       </c>
-      <c r="C191" t="b" s="161">
+      <c r="C191" t="b" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D191" s="160"/>
+      <c r="D191" s="159"/>
       <c r="E191" s="31"/>
       <c r="F191" s="31"/>
       <c r="G191" s="31"/>
@@ -27990,9 +27992,9 @@
       <c r="J193" t="s" s="32">
         <v>1796</v>
       </c>
-      <c r="K193" s="137"/>
-      <c r="L193" s="137"/>
-      <c r="M193" s="137"/>
+      <c r="K193" s="136"/>
+      <c r="L193" s="136"/>
+      <c r="M193" s="136"/>
       <c r="N193" s="34"/>
       <c r="O193" s="34">
         <v>0</v>
@@ -28033,9 +28035,9 @@
       <c r="J194" t="s" s="32">
         <v>1798</v>
       </c>
-      <c r="K194" s="137"/>
-      <c r="L194" s="137"/>
-      <c r="M194" s="137"/>
+      <c r="K194" s="136"/>
+      <c r="L194" s="136"/>
+      <c r="M194" s="136"/>
       <c r="N194" s="34"/>
       <c r="O194" s="34">
         <v>0</v>
@@ -28076,9 +28078,9 @@
       <c r="J195" t="s" s="32">
         <v>1800</v>
       </c>
-      <c r="K195" s="137"/>
-      <c r="L195" s="137"/>
-      <c r="M195" s="137"/>
+      <c r="K195" s="136"/>
+      <c r="L195" s="136"/>
+      <c r="M195" s="136"/>
       <c r="N195" s="34"/>
       <c r="O195" s="34">
         <v>0</v>
@@ -28119,9 +28121,9 @@
       <c r="J196" t="s" s="32">
         <v>1802</v>
       </c>
-      <c r="K196" s="137"/>
-      <c r="L196" s="137"/>
-      <c r="M196" s="137"/>
+      <c r="K196" s="136"/>
+      <c r="L196" s="136"/>
+      <c r="M196" s="136"/>
       <c r="N196" s="34"/>
       <c r="O196" s="34">
         <v>0</v>
@@ -28162,9 +28164,9 @@
       <c r="J197" t="s" s="32">
         <v>1804</v>
       </c>
-      <c r="K197" s="137"/>
-      <c r="L197" s="137"/>
-      <c r="M197" s="137"/>
+      <c r="K197" s="136"/>
+      <c r="L197" s="136"/>
+      <c r="M197" s="136"/>
       <c r="N197" s="34"/>
       <c r="O197" s="34">
         <v>0</v>
@@ -28189,7 +28191,7 @@
       <c r="B198" t="s" s="37">
         <v>1805</v>
       </c>
-      <c r="C198" t="b" s="161">
+      <c r="C198" t="b" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28243,9 +28245,9 @@
       <c r="J199" t="s" s="32">
         <v>1808</v>
       </c>
-      <c r="K199" s="137"/>
-      <c r="L199" s="137"/>
-      <c r="M199" s="137"/>
+      <c r="K199" s="136"/>
+      <c r="L199" s="136"/>
+      <c r="M199" s="136"/>
       <c r="N199" s="34"/>
       <c r="O199" s="34">
         <v>0</v>
@@ -28286,9 +28288,9 @@
       <c r="J200" t="s" s="32">
         <v>1810</v>
       </c>
-      <c r="K200" s="137"/>
-      <c r="L200" s="137"/>
-      <c r="M200" s="137"/>
+      <c r="K200" s="136"/>
+      <c r="L200" s="136"/>
+      <c r="M200" s="136"/>
       <c r="N200" s="34"/>
       <c r="O200" s="34">
         <v>0</v>
@@ -28329,9 +28331,9 @@
       <c r="J201" t="s" s="32">
         <v>1812</v>
       </c>
-      <c r="K201" s="137"/>
-      <c r="L201" s="137"/>
-      <c r="M201" s="137"/>
+      <c r="K201" s="136"/>
+      <c r="L201" s="136"/>
+      <c r="M201" s="136"/>
       <c r="N201" s="34"/>
       <c r="O201" s="34">
         <v>0</v>
@@ -28372,9 +28374,9 @@
       <c r="J202" t="s" s="32">
         <v>1814</v>
       </c>
-      <c r="K202" s="137"/>
-      <c r="L202" s="137"/>
-      <c r="M202" s="137"/>
+      <c r="K202" s="136"/>
+      <c r="L202" s="136"/>
+      <c r="M202" s="136"/>
       <c r="N202" s="34"/>
       <c r="O202" s="34">
         <v>0</v>
@@ -28415,9 +28417,9 @@
       <c r="J203" t="s" s="32">
         <v>1816</v>
       </c>
-      <c r="K203" s="137"/>
-      <c r="L203" s="137"/>
-      <c r="M203" s="137"/>
+      <c r="K203" s="136"/>
+      <c r="L203" s="136"/>
+      <c r="M203" s="136"/>
       <c r="N203" s="34"/>
       <c r="O203" s="34">
         <v>0</v>
@@ -28447,10 +28449,10 @@
       </c>
       <c r="D204" s="34"/>
       <c r="E204" s="60"/>
-      <c r="F204" t="s" s="162">
+      <c r="F204" t="s" s="161">
         <v>1818</v>
       </c>
-      <c r="G204" s="163"/>
+      <c r="G204" s="162"/>
       <c r="H204" s="42"/>
       <c r="I204" s="34"/>
       <c r="J204" t="s" s="32">
@@ -28469,8 +28471,8 @@
       <c r="S204" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T204" s="164"/>
-      <c r="U204" s="165"/>
+      <c r="T204" s="163"/>
+      <c r="U204" s="164"/>
       <c r="V204" s="34"/>
       <c r="W204" s="34"/>
     </row>
@@ -28486,18 +28488,18 @@
       </c>
       <c r="D205" s="34"/>
       <c r="E205" s="60"/>
-      <c r="F205" t="s" s="162">
+      <c r="F205" t="s" s="161">
         <v>1820</v>
       </c>
-      <c r="G205" s="163"/>
+      <c r="G205" s="162"/>
       <c r="H205" s="42"/>
       <c r="I205" s="34"/>
       <c r="J205" t="s" s="32">
         <v>1796</v>
       </c>
-      <c r="K205" s="137"/>
-      <c r="L205" s="137"/>
-      <c r="M205" s="137"/>
+      <c r="K205" s="136"/>
+      <c r="L205" s="136"/>
+      <c r="M205" s="136"/>
       <c r="N205" s="34"/>
       <c r="O205" s="34"/>
       <c r="P205" s="34"/>
@@ -28508,8 +28510,8 @@
       <c r="S205" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T205" s="164"/>
-      <c r="U205" s="165"/>
+      <c r="T205" s="163"/>
+      <c r="U205" s="164"/>
       <c r="V205" s="34"/>
       <c r="W205" s="34"/>
     </row>
@@ -28525,18 +28527,18 @@
       </c>
       <c r="D206" s="34"/>
       <c r="E206" s="60"/>
-      <c r="F206" t="s" s="162">
+      <c r="F206" t="s" s="161">
         <v>1822</v>
       </c>
-      <c r="G206" s="163"/>
+      <c r="G206" s="162"/>
       <c r="H206" s="42"/>
       <c r="I206" s="34"/>
       <c r="J206" t="s" s="32">
         <v>1798</v>
       </c>
-      <c r="K206" s="137"/>
-      <c r="L206" s="137"/>
-      <c r="M206" s="137"/>
+      <c r="K206" s="136"/>
+      <c r="L206" s="136"/>
+      <c r="M206" s="136"/>
       <c r="N206" s="34"/>
       <c r="O206" s="34"/>
       <c r="P206" s="34"/>
@@ -28547,8 +28549,8 @@
       <c r="S206" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T206" s="164"/>
-      <c r="U206" s="165"/>
+      <c r="T206" s="163"/>
+      <c r="U206" s="164"/>
       <c r="V206" s="34"/>
       <c r="W206" s="34"/>
     </row>
@@ -28564,18 +28566,18 @@
       </c>
       <c r="D207" s="34"/>
       <c r="E207" s="60"/>
-      <c r="F207" t="s" s="162">
+      <c r="F207" t="s" s="161">
         <v>1824</v>
       </c>
-      <c r="G207" s="163"/>
+      <c r="G207" s="162"/>
       <c r="H207" s="42"/>
       <c r="I207" s="34"/>
       <c r="J207" t="s" s="32">
         <v>1800</v>
       </c>
-      <c r="K207" s="137"/>
-      <c r="L207" s="137"/>
-      <c r="M207" s="137"/>
+      <c r="K207" s="136"/>
+      <c r="L207" s="136"/>
+      <c r="M207" s="136"/>
       <c r="N207" s="34"/>
       <c r="O207" s="34"/>
       <c r="P207" s="34"/>
@@ -28586,8 +28588,8 @@
       <c r="S207" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T207" s="164"/>
-      <c r="U207" s="165"/>
+      <c r="T207" s="163"/>
+      <c r="U207" s="164"/>
       <c r="V207" s="34"/>
       <c r="W207" s="34"/>
     </row>
@@ -28603,18 +28605,18 @@
       </c>
       <c r="D208" s="34"/>
       <c r="E208" s="60"/>
-      <c r="F208" t="s" s="162">
+      <c r="F208" t="s" s="161">
         <v>1826</v>
       </c>
-      <c r="G208" s="163"/>
+      <c r="G208" s="162"/>
       <c r="H208" s="42"/>
       <c r="I208" s="34"/>
       <c r="J208" t="s" s="32">
         <v>1802</v>
       </c>
-      <c r="K208" s="137"/>
-      <c r="L208" s="137"/>
-      <c r="M208" s="137"/>
+      <c r="K208" s="136"/>
+      <c r="L208" s="136"/>
+      <c r="M208" s="136"/>
       <c r="N208" s="34"/>
       <c r="O208" s="34"/>
       <c r="P208" s="34"/>
@@ -28625,8 +28627,8 @@
       <c r="S208" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T208" s="164"/>
-      <c r="U208" s="165"/>
+      <c r="T208" s="163"/>
+      <c r="U208" s="164"/>
       <c r="V208" s="34"/>
       <c r="W208" s="34"/>
     </row>
@@ -28642,18 +28644,18 @@
       </c>
       <c r="D209" s="34"/>
       <c r="E209" s="60"/>
-      <c r="F209" t="s" s="162">
+      <c r="F209" t="s" s="161">
         <v>1828</v>
       </c>
-      <c r="G209" s="163"/>
+      <c r="G209" s="162"/>
       <c r="H209" s="42"/>
       <c r="I209" s="34"/>
       <c r="J209" t="s" s="32">
         <v>1804</v>
       </c>
-      <c r="K209" s="137"/>
-      <c r="L209" s="137"/>
-      <c r="M209" s="137"/>
+      <c r="K209" s="136"/>
+      <c r="L209" s="136"/>
+      <c r="M209" s="136"/>
       <c r="N209" s="34"/>
       <c r="O209" s="34"/>
       <c r="P209" s="34"/>
@@ -28664,8 +28666,8 @@
       <c r="S209" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T209" s="164"/>
-      <c r="U209" s="165"/>
+      <c r="T209" s="163"/>
+      <c r="U209" s="164"/>
       <c r="V209" s="34"/>
       <c r="W209" s="34"/>
     </row>
@@ -28681,18 +28683,18 @@
       </c>
       <c r="D210" s="34"/>
       <c r="E210" s="60"/>
-      <c r="F210" t="s" s="162">
+      <c r="F210" t="s" s="161">
         <v>1830</v>
       </c>
-      <c r="G210" s="163"/>
+      <c r="G210" s="162"/>
       <c r="H210" s="42"/>
       <c r="I210" s="34"/>
       <c r="J210" t="s" s="32">
         <v>1808</v>
       </c>
-      <c r="K210" s="137"/>
-      <c r="L210" s="137"/>
-      <c r="M210" s="137"/>
+      <c r="K210" s="136"/>
+      <c r="L210" s="136"/>
+      <c r="M210" s="136"/>
       <c r="N210" s="34"/>
       <c r="O210" s="34"/>
       <c r="P210" s="34"/>
@@ -28703,8 +28705,8 @@
       <c r="S210" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T210" s="164"/>
-      <c r="U210" s="165"/>
+      <c r="T210" s="163"/>
+      <c r="U210" s="164"/>
       <c r="V210" s="34"/>
       <c r="W210" s="34"/>
     </row>
@@ -28720,18 +28722,18 @@
       </c>
       <c r="D211" s="34"/>
       <c r="E211" s="60"/>
-      <c r="F211" t="s" s="162">
+      <c r="F211" t="s" s="161">
         <v>1832</v>
       </c>
-      <c r="G211" s="163"/>
+      <c r="G211" s="162"/>
       <c r="H211" s="42"/>
       <c r="I211" s="34"/>
       <c r="J211" t="s" s="32">
         <v>1810</v>
       </c>
-      <c r="K211" s="137"/>
-      <c r="L211" s="137"/>
-      <c r="M211" s="137"/>
+      <c r="K211" s="136"/>
+      <c r="L211" s="136"/>
+      <c r="M211" s="136"/>
       <c r="N211" s="34"/>
       <c r="O211" s="34"/>
       <c r="P211" s="34"/>
@@ -28742,8 +28744,8 @@
       <c r="S211" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T211" s="164"/>
-      <c r="U211" s="165"/>
+      <c r="T211" s="163"/>
+      <c r="U211" s="164"/>
       <c r="V211" s="34"/>
       <c r="W211" s="34"/>
     </row>
@@ -28759,18 +28761,18 @@
       </c>
       <c r="D212" s="34"/>
       <c r="E212" s="60"/>
-      <c r="F212" t="s" s="162">
+      <c r="F212" t="s" s="161">
         <v>1834</v>
       </c>
-      <c r="G212" s="163"/>
+      <c r="G212" s="162"/>
       <c r="H212" s="42"/>
       <c r="I212" s="34"/>
       <c r="J212" t="s" s="32">
         <v>1812</v>
       </c>
-      <c r="K212" s="137"/>
-      <c r="L212" s="137"/>
-      <c r="M212" s="137"/>
+      <c r="K212" s="136"/>
+      <c r="L212" s="136"/>
+      <c r="M212" s="136"/>
       <c r="N212" s="34"/>
       <c r="O212" s="34"/>
       <c r="P212" s="34"/>
@@ -28781,8 +28783,8 @@
       <c r="S212" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T212" s="164"/>
-      <c r="U212" s="165"/>
+      <c r="T212" s="163"/>
+      <c r="U212" s="164"/>
       <c r="V212" s="34"/>
       <c r="W212" s="34"/>
     </row>
@@ -28798,18 +28800,18 @@
       </c>
       <c r="D213" s="34"/>
       <c r="E213" s="60"/>
-      <c r="F213" t="s" s="162">
+      <c r="F213" t="s" s="161">
         <v>1836</v>
       </c>
-      <c r="G213" s="163"/>
+      <c r="G213" s="162"/>
       <c r="H213" s="42"/>
       <c r="I213" s="34"/>
       <c r="J213" t="s" s="32">
         <v>1814</v>
       </c>
-      <c r="K213" s="137"/>
-      <c r="L213" s="137"/>
-      <c r="M213" s="137"/>
+      <c r="K213" s="136"/>
+      <c r="L213" s="136"/>
+      <c r="M213" s="136"/>
       <c r="N213" s="34"/>
       <c r="O213" s="34"/>
       <c r="P213" s="34"/>
@@ -28820,8 +28822,8 @@
       <c r="S213" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T213" s="164"/>
-      <c r="U213" s="165"/>
+      <c r="T213" s="163"/>
+      <c r="U213" s="164"/>
       <c r="V213" s="34"/>
       <c r="W213" s="34"/>
     </row>
@@ -28837,18 +28839,18 @@
       </c>
       <c r="D214" s="34"/>
       <c r="E214" s="60"/>
-      <c r="F214" t="s" s="162">
+      <c r="F214" t="s" s="161">
         <v>1838</v>
       </c>
-      <c r="G214" s="163"/>
+      <c r="G214" s="162"/>
       <c r="H214" s="42"/>
       <c r="I214" s="34"/>
       <c r="J214" t="s" s="32">
         <v>1816</v>
       </c>
-      <c r="K214" s="137"/>
-      <c r="L214" s="137"/>
-      <c r="M214" s="137"/>
+      <c r="K214" s="136"/>
+      <c r="L214" s="136"/>
+      <c r="M214" s="136"/>
       <c r="N214" s="34"/>
       <c r="O214" s="34"/>
       <c r="P214" s="34"/>
@@ -28859,8 +28861,8 @@
       <c r="S214" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T214" s="164"/>
-      <c r="U214" s="165"/>
+      <c r="T214" s="163"/>
+      <c r="U214" s="164"/>
       <c r="V214" s="34"/>
       <c r="W214" s="34"/>
     </row>
@@ -28871,13 +28873,13 @@
       <c r="B215" t="s" s="32">
         <v>1839</v>
       </c>
-      <c r="C215" t="b" s="130">
+      <c r="C215" t="b" s="129">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="D215" s="34"/>
       <c r="E215" s="34"/>
-      <c r="F215" t="s" s="166">
+      <c r="F215" t="s" s="165">
         <v>1840</v>
       </c>
       <c r="G215" s="48"/>
@@ -28933,7 +28935,7 @@
       <c r="N216" s="34"/>
       <c r="O216" s="34"/>
       <c r="P216" s="34"/>
-      <c r="Q216" t="b" s="167">
+      <c r="Q216" t="b" s="166">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -28943,7 +28945,7 @@
       <c r="S216" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T216" s="168"/>
+      <c r="T216" s="167"/>
       <c r="U216" s="34"/>
       <c r="V216" s="92"/>
       <c r="W216" s="34"/>
@@ -28959,28 +28961,28 @@
       <c r="D217" t="s" s="36">
         <v>1844</v>
       </c>
-      <c r="E217" s="140"/>
+      <c r="E217" s="139"/>
       <c r="F217" s="57"/>
       <c r="G217" s="57"/>
       <c r="H217" s="57"/>
-      <c r="I217" s="169"/>
+      <c r="I217" s="168"/>
       <c r="J217" t="s" s="38">
         <v>1848</v>
       </c>
-      <c r="K217" s="170"/>
-      <c r="L217" s="171"/>
-      <c r="M217" s="171"/>
+      <c r="K217" s="169"/>
+      <c r="L217" s="170"/>
+      <c r="M217" s="170"/>
       <c r="N217" s="40"/>
       <c r="O217" s="40"/>
       <c r="P217" s="40"/>
       <c r="Q217" s="87"/>
-      <c r="R217" t="s" s="172">
+      <c r="R217" t="s" s="171">
         <v>1266</v>
       </c>
-      <c r="S217" t="s" s="172">
+      <c r="S217" t="s" s="171">
         <v>1267</v>
       </c>
-      <c r="T217" s="173"/>
+      <c r="T217" s="172"/>
       <c r="U217" s="40"/>
       <c r="V217" s="87"/>
       <c r="W217" s="40"/>
@@ -29000,17 +29002,17 @@
       <c r="H218" s="57"/>
       <c r="I218" s="57"/>
       <c r="J218" s="57"/>
-      <c r="K218" s="174"/>
-      <c r="L218" s="174"/>
-      <c r="M218" s="174"/>
+      <c r="K218" s="173"/>
+      <c r="L218" s="173"/>
+      <c r="M218" s="173"/>
       <c r="N218" s="57"/>
       <c r="O218" s="57"/>
       <c r="P218" s="57"/>
-      <c r="Q218" s="158"/>
-      <c r="R218" t="s" s="159">
+      <c r="Q218" s="157"/>
+      <c r="R218" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S218" t="s" s="159">
+      <c r="S218" t="s" s="158">
         <v>1267</v>
       </c>
       <c r="T218" s="57"/>
@@ -29035,17 +29037,17 @@
       <c r="J219" t="s" s="38">
         <v>1850</v>
       </c>
-      <c r="K219" s="174"/>
-      <c r="L219" s="174"/>
-      <c r="M219" s="174"/>
+      <c r="K219" s="173"/>
+      <c r="L219" s="173"/>
+      <c r="M219" s="173"/>
       <c r="N219" s="57"/>
       <c r="O219" s="57"/>
       <c r="P219" s="57"/>
-      <c r="Q219" s="158"/>
-      <c r="R219" t="s" s="159">
+      <c r="Q219" s="157"/>
+      <c r="R219" t="s" s="158">
         <v>1667</v>
       </c>
-      <c r="S219" t="s" s="159">
+      <c r="S219" t="s" s="158">
         <v>1267</v>
       </c>
       <c r="T219" s="57"/>
@@ -29072,9 +29074,9 @@
       <c r="J220" t="s" s="29">
         <v>1852</v>
       </c>
-      <c r="K220" s="175"/>
-      <c r="L220" s="175"/>
-      <c r="M220" s="175"/>
+      <c r="K220" s="174"/>
+      <c r="L220" s="174"/>
+      <c r="M220" s="174"/>
       <c r="N220" s="31"/>
       <c r="O220" s="31"/>
       <c r="P220" s="31"/>
@@ -29250,9 +29252,9 @@
       <c r="J224" t="s" s="32">
         <v>1872</v>
       </c>
-      <c r="K224" s="137"/>
-      <c r="L224" s="137"/>
-      <c r="M224" s="137"/>
+      <c r="K224" s="136"/>
+      <c r="L224" s="136"/>
+      <c r="M224" s="136"/>
       <c r="N224" t="s" s="32">
         <v>1873</v>
       </c>
@@ -29295,9 +29297,9 @@
       <c r="J225" t="s" s="32">
         <v>1877</v>
       </c>
-      <c r="K225" s="137"/>
-      <c r="L225" s="137"/>
-      <c r="M225" s="137"/>
+      <c r="K225" s="136"/>
+      <c r="L225" s="136"/>
+      <c r="M225" s="136"/>
       <c r="N225" t="s" s="32">
         <v>1878</v>
       </c>
@@ -29340,9 +29342,9 @@
       <c r="J226" t="s" s="32">
         <v>1882</v>
       </c>
-      <c r="K226" s="137"/>
-      <c r="L226" s="137"/>
-      <c r="M226" s="137"/>
+      <c r="K226" s="136"/>
+      <c r="L226" s="136"/>
+      <c r="M226" s="136"/>
       <c r="N226" t="s" s="32">
         <v>1883</v>
       </c>
@@ -29385,9 +29387,9 @@
       <c r="J227" t="s" s="32">
         <v>1887</v>
       </c>
-      <c r="K227" s="137"/>
-      <c r="L227" s="137"/>
-      <c r="M227" s="137"/>
+      <c r="K227" s="136"/>
+      <c r="L227" s="136"/>
+      <c r="M227" s="136"/>
       <c r="N227" t="s" s="32">
         <v>1888</v>
       </c>
@@ -29430,9 +29432,9 @@
       <c r="J228" t="s" s="32">
         <v>1892</v>
       </c>
-      <c r="K228" s="137"/>
-      <c r="L228" s="137"/>
-      <c r="M228" s="137"/>
+      <c r="K228" s="136"/>
+      <c r="L228" s="136"/>
+      <c r="M228" s="136"/>
       <c r="N228" t="s" s="32">
         <v>1893</v>
       </c>
@@ -29475,9 +29477,9 @@
       <c r="J229" t="s" s="32">
         <v>1897</v>
       </c>
-      <c r="K229" s="137"/>
-      <c r="L229" s="137"/>
-      <c r="M229" s="137"/>
+      <c r="K229" s="136"/>
+      <c r="L229" s="136"/>
+      <c r="M229" s="136"/>
       <c r="N229" t="s" s="32">
         <v>1898</v>
       </c>
@@ -29520,9 +29522,9 @@
       <c r="J230" t="s" s="32">
         <v>1902</v>
       </c>
-      <c r="K230" s="137"/>
-      <c r="L230" s="137"/>
-      <c r="M230" s="137"/>
+      <c r="K230" s="136"/>
+      <c r="L230" s="136"/>
+      <c r="M230" s="136"/>
       <c r="N230" t="s" s="32">
         <v>1903</v>
       </c>
@@ -29554,10 +29556,10 @@
       </c>
       <c r="D231" s="34"/>
       <c r="E231" s="60"/>
-      <c r="F231" t="s" s="162">
+      <c r="F231" t="s" s="161">
         <v>1905</v>
       </c>
-      <c r="G231" s="163"/>
+      <c r="G231" s="162"/>
       <c r="H231" s="42"/>
       <c r="I231" s="34"/>
       <c r="J231" t="s" s="32">
@@ -29578,8 +29580,8 @@
       <c r="S231" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T231" s="164"/>
-      <c r="U231" s="165"/>
+      <c r="T231" s="163"/>
+      <c r="U231" s="164"/>
       <c r="V231" s="34"/>
       <c r="W231" s="34"/>
     </row>
@@ -29595,10 +29597,10 @@
       </c>
       <c r="D232" s="34"/>
       <c r="E232" s="60"/>
-      <c r="F232" t="s" s="162">
+      <c r="F232" t="s" s="161">
         <v>1909</v>
       </c>
-      <c r="G232" s="163"/>
+      <c r="G232" s="162"/>
       <c r="H232" s="42"/>
       <c r="I232" s="34"/>
       <c r="J232" t="s" s="32">
@@ -29619,8 +29621,8 @@
       <c r="S232" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T232" s="164"/>
-      <c r="U232" s="165"/>
+      <c r="T232" s="163"/>
+      <c r="U232" s="164"/>
       <c r="V232" s="34"/>
       <c r="W232" s="34"/>
     </row>
@@ -29636,10 +29638,10 @@
       </c>
       <c r="D233" s="34"/>
       <c r="E233" s="60"/>
-      <c r="F233" t="s" s="162">
+      <c r="F233" t="s" s="161">
         <v>1913</v>
       </c>
-      <c r="G233" s="163"/>
+      <c r="G233" s="162"/>
       <c r="H233" s="42"/>
       <c r="I233" s="34"/>
       <c r="J233" t="s" s="32">
@@ -29660,8 +29662,8 @@
       <c r="S233" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T233" s="164"/>
-      <c r="U233" s="165"/>
+      <c r="T233" s="163"/>
+      <c r="U233" s="164"/>
       <c r="V233" s="34"/>
       <c r="W233" s="34"/>
     </row>
@@ -29677,18 +29679,18 @@
       </c>
       <c r="D234" s="34"/>
       <c r="E234" s="60"/>
-      <c r="F234" t="s" s="162">
+      <c r="F234" t="s" s="161">
         <v>1917</v>
       </c>
-      <c r="G234" s="163"/>
+      <c r="G234" s="162"/>
       <c r="H234" s="42"/>
       <c r="I234" s="34"/>
       <c r="J234" t="s" s="32">
         <v>1872</v>
       </c>
-      <c r="K234" s="137"/>
-      <c r="L234" s="137"/>
-      <c r="M234" s="137"/>
+      <c r="K234" s="136"/>
+      <c r="L234" s="136"/>
+      <c r="M234" s="136"/>
       <c r="N234" t="s" s="32">
         <v>1918</v>
       </c>
@@ -29701,8 +29703,8 @@
       <c r="S234" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T234" s="164"/>
-      <c r="U234" s="165"/>
+      <c r="T234" s="163"/>
+      <c r="U234" s="164"/>
       <c r="V234" s="34"/>
       <c r="W234" s="34"/>
     </row>
@@ -29718,18 +29720,18 @@
       </c>
       <c r="D235" s="34"/>
       <c r="E235" s="60"/>
-      <c r="F235" t="s" s="162">
+      <c r="F235" t="s" s="161">
         <v>1920</v>
       </c>
-      <c r="G235" s="163"/>
+      <c r="G235" s="162"/>
       <c r="H235" s="42"/>
       <c r="I235" s="34"/>
       <c r="J235" t="s" s="32">
         <v>1921</v>
       </c>
-      <c r="K235" s="137"/>
-      <c r="L235" s="137"/>
-      <c r="M235" s="137"/>
+      <c r="K235" s="136"/>
+      <c r="L235" s="136"/>
+      <c r="M235" s="136"/>
       <c r="N235" t="s" s="32">
         <v>1922</v>
       </c>
@@ -29742,8 +29744,8 @@
       <c r="S235" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T235" s="164"/>
-      <c r="U235" s="165"/>
+      <c r="T235" s="163"/>
+      <c r="U235" s="164"/>
       <c r="V235" s="34"/>
       <c r="W235" s="34"/>
     </row>
@@ -29759,18 +29761,18 @@
       </c>
       <c r="D236" s="34"/>
       <c r="E236" s="60"/>
-      <c r="F236" t="s" s="162">
+      <c r="F236" t="s" s="161">
         <v>1924</v>
       </c>
-      <c r="G236" s="163"/>
+      <c r="G236" s="162"/>
       <c r="H236" s="42"/>
       <c r="I236" s="34"/>
       <c r="J236" t="s" s="32">
         <v>1925</v>
       </c>
-      <c r="K236" s="137"/>
-      <c r="L236" s="137"/>
-      <c r="M236" s="137"/>
+      <c r="K236" s="136"/>
+      <c r="L236" s="136"/>
+      <c r="M236" s="136"/>
       <c r="N236" t="s" s="32">
         <v>1926</v>
       </c>
@@ -29783,8 +29785,8 @@
       <c r="S236" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T236" s="164"/>
-      <c r="U236" s="165"/>
+      <c r="T236" s="163"/>
+      <c r="U236" s="164"/>
       <c r="V236" s="34"/>
       <c r="W236" s="34"/>
     </row>
@@ -29800,18 +29802,18 @@
       </c>
       <c r="D237" s="34"/>
       <c r="E237" s="60"/>
-      <c r="F237" t="s" s="162">
+      <c r="F237" t="s" s="161">
         <v>1928</v>
       </c>
-      <c r="G237" s="163"/>
+      <c r="G237" s="162"/>
       <c r="H237" s="42"/>
       <c r="I237" s="34"/>
       <c r="J237" t="s" s="32">
         <v>1929</v>
       </c>
-      <c r="K237" s="137"/>
-      <c r="L237" s="137"/>
-      <c r="M237" s="137"/>
+      <c r="K237" s="136"/>
+      <c r="L237" s="136"/>
+      <c r="M237" s="136"/>
       <c r="N237" t="s" s="32">
         <v>1930</v>
       </c>
@@ -29824,8 +29826,8 @@
       <c r="S237" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T237" s="164"/>
-      <c r="U237" s="165"/>
+      <c r="T237" s="163"/>
+      <c r="U237" s="164"/>
       <c r="V237" s="34"/>
       <c r="W237" s="34"/>
     </row>
@@ -29841,18 +29843,18 @@
       </c>
       <c r="D238" s="34"/>
       <c r="E238" s="60"/>
-      <c r="F238" t="s" s="162">
+      <c r="F238" t="s" s="161">
         <v>1932</v>
       </c>
-      <c r="G238" s="163"/>
+      <c r="G238" s="162"/>
       <c r="H238" s="42"/>
       <c r="I238" s="34"/>
       <c r="J238" t="s" s="32">
         <v>1933</v>
       </c>
-      <c r="K238" s="137"/>
-      <c r="L238" s="137"/>
-      <c r="M238" s="137"/>
+      <c r="K238" s="136"/>
+      <c r="L238" s="136"/>
+      <c r="M238" s="136"/>
       <c r="N238" t="s" s="32">
         <v>1934</v>
       </c>
@@ -29865,8 +29867,8 @@
       <c r="S238" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T238" s="164"/>
-      <c r="U238" s="165"/>
+      <c r="T238" s="163"/>
+      <c r="U238" s="164"/>
       <c r="V238" s="34"/>
       <c r="W238" s="34"/>
     </row>
@@ -29877,24 +29879,24 @@
       <c r="B239" t="s" s="32">
         <v>1935</v>
       </c>
-      <c r="C239" t="b" s="130">
+      <c r="C239" t="b" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D239" s="34"/>
       <c r="E239" s="60"/>
-      <c r="F239" t="s" s="162">
+      <c r="F239" t="s" s="161">
         <v>1936</v>
       </c>
-      <c r="G239" s="163"/>
+      <c r="G239" s="162"/>
       <c r="H239" s="42"/>
       <c r="I239" s="34"/>
       <c r="J239" t="s" s="32">
         <v>1897</v>
       </c>
-      <c r="K239" s="137"/>
-      <c r="L239" s="137"/>
-      <c r="M239" s="137"/>
+      <c r="K239" s="136"/>
+      <c r="L239" s="136"/>
+      <c r="M239" s="136"/>
       <c r="N239" t="s" s="32">
         <v>1937</v>
       </c>
@@ -29907,8 +29909,8 @@
       <c r="S239" t="s" s="91">
         <v>1267</v>
       </c>
-      <c r="T239" s="164"/>
-      <c r="U239" s="165"/>
+      <c r="T239" s="163"/>
+      <c r="U239" s="164"/>
       <c r="V239" s="34"/>
       <c r="W239" s="34"/>
     </row>
@@ -29919,38 +29921,38 @@
       <c r="B240" t="s" s="36">
         <v>1938</v>
       </c>
-      <c r="C240" t="b" s="176">
+      <c r="C240" t="b" s="175">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D240" s="40"/>
-      <c r="E240" s="140"/>
-      <c r="F240" t="s" s="162">
+      <c r="E240" s="139"/>
+      <c r="F240" t="s" s="161">
         <v>1939</v>
       </c>
-      <c r="G240" s="163"/>
+      <c r="G240" s="162"/>
       <c r="H240" s="97"/>
       <c r="I240" s="40"/>
       <c r="J240" t="s" s="36">
         <v>1940</v>
       </c>
-      <c r="K240" s="177"/>
-      <c r="L240" s="177"/>
-      <c r="M240" s="177"/>
+      <c r="K240" s="176"/>
+      <c r="L240" s="176"/>
+      <c r="M240" s="176"/>
       <c r="N240" t="s" s="36">
         <v>1941</v>
       </c>
       <c r="O240" s="40"/>
       <c r="P240" s="40"/>
       <c r="Q240" s="87"/>
-      <c r="R240" t="s" s="172">
+      <c r="R240" t="s" s="171">
         <v>1266</v>
       </c>
-      <c r="S240" t="s" s="172">
+      <c r="S240" t="s" s="171">
         <v>1267</v>
       </c>
-      <c r="T240" s="178"/>
-      <c r="U240" s="179"/>
+      <c r="T240" s="177"/>
+      <c r="U240" s="178"/>
       <c r="V240" s="40"/>
       <c r="W240" s="40"/>
     </row>
@@ -29969,17 +29971,17 @@
       <c r="H241" s="57"/>
       <c r="I241" s="57"/>
       <c r="J241" s="57"/>
-      <c r="K241" s="174"/>
-      <c r="L241" s="174"/>
-      <c r="M241" s="174"/>
+      <c r="K241" s="173"/>
+      <c r="L241" s="173"/>
+      <c r="M241" s="173"/>
       <c r="N241" s="57"/>
       <c r="O241" s="57"/>
       <c r="P241" s="57"/>
-      <c r="Q241" s="158"/>
-      <c r="R241" t="s" s="159">
+      <c r="Q241" s="157"/>
+      <c r="R241" t="s" s="158">
         <v>1667</v>
       </c>
-      <c r="S241" t="s" s="159">
+      <c r="S241" t="s" s="158">
         <v>1267</v>
       </c>
       <c r="T241" s="57"/>
@@ -30008,16 +30010,16 @@
       <c r="N242" s="57"/>
       <c r="O242" s="57"/>
       <c r="P242" s="57"/>
-      <c r="Q242" s="158"/>
-      <c r="R242" t="s" s="159">
+      <c r="Q242" s="157"/>
+      <c r="R242" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S242" t="s" s="159">
+      <c r="S242" t="s" s="158">
         <v>1267</v>
       </c>
-      <c r="T242" s="158"/>
-      <c r="U242" s="158"/>
-      <c r="V242" s="160"/>
+      <c r="T242" s="157"/>
+      <c r="U242" s="157"/>
+      <c r="V242" s="159"/>
       <c r="W242" s="31"/>
     </row>
     <row r="243" ht="13.65" customHeight="1">
@@ -30113,9 +30115,9 @@
       <c r="J245" t="s" s="38">
         <v>1947</v>
       </c>
-      <c r="K245" s="180"/>
-      <c r="L245" s="137"/>
-      <c r="M245" s="137"/>
+      <c r="K245" s="179"/>
+      <c r="L245" s="136"/>
+      <c r="M245" s="136"/>
       <c r="N245" s="34"/>
       <c r="O245" s="34"/>
       <c r="P245" s="34"/>
@@ -30147,12 +30149,12 @@
       <c r="G246" s="34"/>
       <c r="H246" s="34"/>
       <c r="I246" s="34"/>
-      <c r="J246" t="s" s="181">
+      <c r="J246" t="s" s="180">
         <v>1949</v>
       </c>
-      <c r="K246" s="137"/>
-      <c r="L246" s="137"/>
-      <c r="M246" s="137"/>
+      <c r="K246" s="136"/>
+      <c r="L246" s="136"/>
+      <c r="M246" s="136"/>
       <c r="N246" s="34"/>
       <c r="O246" s="34"/>
       <c r="P246" s="34"/>
@@ -30187,9 +30189,9 @@
       <c r="J247" t="s" s="44">
         <v>1951</v>
       </c>
-      <c r="K247" s="137"/>
-      <c r="L247" s="137"/>
-      <c r="M247" s="137"/>
+      <c r="K247" s="136"/>
+      <c r="L247" s="136"/>
+      <c r="M247" s="136"/>
       <c r="N247" s="34"/>
       <c r="O247" s="34"/>
       <c r="P247" s="34"/>
@@ -30221,12 +30223,12 @@
       <c r="G248" s="34"/>
       <c r="H248" s="34"/>
       <c r="I248" s="34"/>
-      <c r="J248" t="s" s="131">
+      <c r="J248" t="s" s="130">
         <v>1953</v>
       </c>
-      <c r="K248" s="137"/>
-      <c r="L248" s="137"/>
-      <c r="M248" s="137"/>
+      <c r="K248" s="136"/>
+      <c r="L248" s="136"/>
+      <c r="M248" s="136"/>
       <c r="N248" s="34"/>
       <c r="O248" s="34"/>
       <c r="P248" s="34"/>
@@ -30260,12 +30262,12 @@
       <c r="G249" s="34"/>
       <c r="H249" s="34"/>
       <c r="I249" s="34"/>
-      <c r="J249" t="s" s="131">
+      <c r="J249" t="s" s="130">
         <v>1956</v>
       </c>
-      <c r="K249" s="137"/>
-      <c r="L249" s="137"/>
-      <c r="M249" s="137"/>
+      <c r="K249" s="136"/>
+      <c r="L249" s="136"/>
+      <c r="M249" s="136"/>
       <c r="N249" s="34"/>
       <c r="O249" s="34"/>
       <c r="P249" s="34"/>
@@ -30299,7 +30301,7 @@
       <c r="G250" s="34"/>
       <c r="H250" s="34"/>
       <c r="I250" s="34"/>
-      <c r="J250" t="s" s="131">
+      <c r="J250" t="s" s="130">
         <v>1959</v>
       </c>
       <c r="K250" s="34"/>
@@ -30338,7 +30340,7 @@
       <c r="G251" s="34"/>
       <c r="H251" s="34"/>
       <c r="I251" s="34"/>
-      <c r="J251" t="s" s="131">
+      <c r="J251" t="s" s="130">
         <v>1963</v>
       </c>
       <c r="K251" s="34"/>
@@ -30377,12 +30379,12 @@
       <c r="G252" s="40"/>
       <c r="H252" s="40"/>
       <c r="I252" s="40"/>
-      <c r="J252" t="s" s="132">
+      <c r="J252" t="s" s="131">
         <v>1966</v>
       </c>
-      <c r="K252" s="177"/>
-      <c r="L252" s="177"/>
-      <c r="M252" s="177"/>
+      <c r="K252" s="176"/>
+      <c r="L252" s="176"/>
+      <c r="M252" s="176"/>
       <c r="N252" s="40"/>
       <c r="O252" s="40"/>
       <c r="P252" s="40"/>
@@ -30412,22 +30414,22 @@
       <c r="G253" s="57"/>
       <c r="H253" s="57"/>
       <c r="I253" s="57"/>
-      <c r="J253" s="133"/>
-      <c r="K253" s="133"/>
-      <c r="L253" s="133"/>
-      <c r="M253" s="133"/>
+      <c r="J253" s="132"/>
+      <c r="K253" s="132"/>
+      <c r="L253" s="132"/>
+      <c r="M253" s="132"/>
       <c r="N253" s="57"/>
       <c r="O253" s="57"/>
       <c r="P253" s="57"/>
-      <c r="Q253" s="158"/>
-      <c r="R253" t="s" s="159">
+      <c r="Q253" s="157"/>
+      <c r="R253" t="s" s="158">
         <v>1266</v>
       </c>
       <c r="S253" t="s" s="38">
         <v>1380</v>
       </c>
-      <c r="T253" s="158"/>
-      <c r="U253" s="158"/>
+      <c r="T253" s="157"/>
+      <c r="U253" s="157"/>
       <c r="V253" s="42"/>
       <c r="W253" s="34"/>
     </row>
@@ -30452,21 +30454,21 @@
       <c r="J254" t="s" s="38">
         <v>1968</v>
       </c>
-      <c r="K254" s="133"/>
-      <c r="L254" s="133"/>
-      <c r="M254" s="133"/>
+      <c r="K254" s="132"/>
+      <c r="L254" s="132"/>
+      <c r="M254" s="132"/>
       <c r="N254" s="57"/>
       <c r="O254" s="57"/>
       <c r="P254" s="57"/>
-      <c r="Q254" s="158"/>
-      <c r="R254" t="s" s="159">
+      <c r="Q254" s="157"/>
+      <c r="R254" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S254" t="s" s="159">
+      <c r="S254" t="s" s="158">
         <v>1380</v>
       </c>
-      <c r="T254" s="158"/>
-      <c r="U254" s="158"/>
+      <c r="T254" s="157"/>
+      <c r="U254" s="157"/>
       <c r="V254" s="42"/>
       <c r="W254" s="34"/>
     </row>
@@ -30484,12 +30486,12 @@
       <c r="G255" s="31"/>
       <c r="H255" s="31"/>
       <c r="I255" s="31"/>
-      <c r="J255" t="s" s="181">
+      <c r="J255" t="s" s="180">
         <v>1970</v>
       </c>
-      <c r="K255" s="182"/>
-      <c r="L255" s="182"/>
-      <c r="M255" s="182"/>
+      <c r="K255" s="181"/>
+      <c r="L255" s="181"/>
+      <c r="M255" s="181"/>
       <c r="N255" s="31"/>
       <c r="O255" s="31"/>
       <c r="P255" s="31"/>
@@ -30521,7 +30523,7 @@
       <c r="G256" s="34"/>
       <c r="H256" s="34"/>
       <c r="I256" s="34"/>
-      <c r="J256" t="s" s="131">
+      <c r="J256" t="s" s="130">
         <v>1973</v>
       </c>
       <c r="K256" s="112"/>
@@ -30686,9 +30688,9 @@
       <c r="J260" t="s" s="44">
         <v>1982</v>
       </c>
-      <c r="K260" s="137"/>
-      <c r="L260" s="137"/>
-      <c r="M260" s="137"/>
+      <c r="K260" s="136"/>
+      <c r="L260" s="136"/>
+      <c r="M260" s="136"/>
       <c r="N260" s="34"/>
       <c r="O260" s="34"/>
       <c r="P260" s="34"/>
@@ -30730,7 +30732,7 @@
         <v>1985</v>
       </c>
       <c r="K261" s="34"/>
-      <c r="L261" s="139"/>
+      <c r="L261" s="138"/>
       <c r="M261" s="34"/>
       <c r="N261" s="34"/>
       <c r="O261" s="34"/>
@@ -30773,7 +30775,7 @@
         <v>1988</v>
       </c>
       <c r="K262" s="40"/>
-      <c r="L262" s="183"/>
+      <c r="L262" s="182"/>
       <c r="M262" s="40"/>
       <c r="N262" s="40"/>
       <c r="O262" s="40"/>
@@ -30782,7 +30784,7 @@
       <c r="R262" t="s" s="36">
         <v>1266</v>
       </c>
-      <c r="S262" t="s" s="172">
+      <c r="S262" t="s" s="171">
         <v>1380</v>
       </c>
       <c r="T262" s="40"/>
@@ -30804,22 +30806,22 @@
       <c r="G263" s="57"/>
       <c r="H263" s="57"/>
       <c r="I263" s="57"/>
-      <c r="J263" s="174"/>
-      <c r="K263" s="174"/>
-      <c r="L263" s="174"/>
-      <c r="M263" s="174"/>
+      <c r="J263" s="173"/>
+      <c r="K263" s="173"/>
+      <c r="L263" s="173"/>
+      <c r="M263" s="173"/>
       <c r="N263" s="57"/>
       <c r="O263" s="57"/>
       <c r="P263" s="57"/>
-      <c r="Q263" s="158"/>
-      <c r="R263" t="s" s="159">
+      <c r="Q263" s="157"/>
+      <c r="R263" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S263" t="s" s="159">
+      <c r="S263" t="s" s="158">
         <v>1380</v>
       </c>
-      <c r="T263" s="158"/>
-      <c r="U263" s="158"/>
+      <c r="T263" s="157"/>
+      <c r="U263" s="157"/>
       <c r="V263" s="97"/>
       <c r="W263" s="40"/>
     </row>
@@ -30850,15 +30852,15 @@
       <c r="N264" s="57"/>
       <c r="O264" s="57"/>
       <c r="P264" s="57"/>
-      <c r="Q264" s="158"/>
-      <c r="R264" t="s" s="159">
+      <c r="Q264" s="157"/>
+      <c r="R264" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S264" t="s" s="159">
+      <c r="S264" t="s" s="158">
         <v>1380</v>
       </c>
-      <c r="T264" s="158"/>
-      <c r="U264" s="158"/>
+      <c r="T264" s="157"/>
+      <c r="U264" s="157"/>
       <c r="V264" s="57"/>
       <c r="W264" s="58"/>
     </row>
@@ -30913,12 +30915,12 @@
       <c r="G266" s="34"/>
       <c r="H266" s="34"/>
       <c r="I266" s="34"/>
-      <c r="J266" t="s" s="131">
+      <c r="J266" t="s" s="130">
         <v>1995</v>
       </c>
-      <c r="K266" s="137"/>
-      <c r="L266" s="137"/>
-      <c r="M266" s="137"/>
+      <c r="K266" s="136"/>
+      <c r="L266" s="136"/>
+      <c r="M266" s="136"/>
       <c r="N266" s="34"/>
       <c r="O266" s="34"/>
       <c r="P266" s="34"/>
@@ -30929,7 +30931,7 @@
       <c r="S266" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T266" s="184"/>
+      <c r="T266" s="183"/>
       <c r="U266" s="92"/>
       <c r="V266" s="34"/>
       <c r="W266" s="34"/>
@@ -30952,12 +30954,12 @@
       <c r="G267" s="34"/>
       <c r="H267" s="34"/>
       <c r="I267" s="34"/>
-      <c r="J267" t="s" s="131">
+      <c r="J267" t="s" s="130">
         <v>1999</v>
       </c>
-      <c r="K267" s="137"/>
-      <c r="L267" s="137"/>
-      <c r="M267" s="137"/>
+      <c r="K267" s="136"/>
+      <c r="L267" s="136"/>
+      <c r="M267" s="136"/>
       <c r="N267" s="34"/>
       <c r="O267" s="34"/>
       <c r="P267" s="34"/>
@@ -30968,7 +30970,7 @@
       <c r="S267" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T267" s="184"/>
+      <c r="T267" s="183"/>
       <c r="U267" s="34"/>
       <c r="V267" s="34"/>
       <c r="W267" s="34"/>
@@ -30989,12 +30991,12 @@
       <c r="G268" s="34"/>
       <c r="H268" s="34"/>
       <c r="I268" s="34"/>
-      <c r="J268" t="s" s="131">
+      <c r="J268" t="s" s="130">
         <v>2001</v>
       </c>
-      <c r="K268" s="137"/>
-      <c r="L268" s="137"/>
-      <c r="M268" s="137"/>
+      <c r="K268" s="136"/>
+      <c r="L268" s="136"/>
+      <c r="M268" s="136"/>
       <c r="N268" s="34"/>
       <c r="O268" s="34"/>
       <c r="P268" s="34"/>
@@ -31005,7 +31007,7 @@
       <c r="S268" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T268" s="184"/>
+      <c r="T268" s="183"/>
       <c r="U268" s="34"/>
       <c r="V268" s="34"/>
       <c r="W268" s="34"/>
@@ -31028,12 +31030,12 @@
       <c r="G269" s="34"/>
       <c r="H269" s="34"/>
       <c r="I269" s="34"/>
-      <c r="J269" t="s" s="131">
+      <c r="J269" t="s" s="130">
         <v>1999</v>
       </c>
-      <c r="K269" s="137"/>
+      <c r="K269" s="136"/>
       <c r="L269" s="34"/>
-      <c r="M269" s="137"/>
+      <c r="M269" s="136"/>
       <c r="N269" s="40"/>
       <c r="O269" s="34"/>
       <c r="P269" s="34"/>
@@ -31044,7 +31046,7 @@
       <c r="S269" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T269" s="184"/>
+      <c r="T269" s="183"/>
       <c r="U269" s="34"/>
       <c r="V269" s="34"/>
       <c r="W269" s="34"/>
@@ -31065,12 +31067,12 @@
       <c r="G270" s="34"/>
       <c r="H270" s="34"/>
       <c r="I270" s="34"/>
-      <c r="J270" t="s" s="131">
+      <c r="J270" t="s" s="130">
         <v>2006</v>
       </c>
-      <c r="K270" s="137"/>
-      <c r="L270" s="137"/>
-      <c r="M270" s="185"/>
+      <c r="K270" s="136"/>
+      <c r="L270" s="136"/>
+      <c r="M270" s="184"/>
       <c r="N270" s="57"/>
       <c r="O270" s="42"/>
       <c r="P270" s="34"/>
@@ -31081,7 +31083,7 @@
       <c r="S270" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T270" s="184"/>
+      <c r="T270" s="183"/>
       <c r="U270" s="34"/>
       <c r="V270" s="34"/>
       <c r="W270" s="34"/>
@@ -31106,12 +31108,12 @@
       <c r="I271" t="s" s="32">
         <v>2009</v>
       </c>
-      <c r="J271" t="s" s="132">
+      <c r="J271" t="s" s="131">
         <v>2010</v>
       </c>
-      <c r="K271" s="137"/>
-      <c r="L271" s="137"/>
-      <c r="M271" s="185"/>
+      <c r="K271" s="136"/>
+      <c r="L271" s="136"/>
+      <c r="M271" s="184"/>
       <c r="N271" s="57"/>
       <c r="O271" s="42"/>
       <c r="P271" s="34"/>
@@ -31122,7 +31124,7 @@
       <c r="S271" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T271" s="184"/>
+      <c r="T271" s="183"/>
       <c r="U271" s="34"/>
       <c r="V271" s="34"/>
       <c r="W271" s="34"/>
@@ -31144,13 +31146,13 @@
       <c r="F272" s="34"/>
       <c r="G272" s="34"/>
       <c r="H272" s="34"/>
-      <c r="I272" s="140"/>
-      <c r="J272" t="s" s="186">
+      <c r="I272" s="139"/>
+      <c r="J272" t="s" s="185">
         <v>2014</v>
       </c>
-      <c r="K272" s="180"/>
-      <c r="L272" s="137"/>
-      <c r="M272" s="137"/>
+      <c r="K272" s="179"/>
+      <c r="L272" s="136"/>
+      <c r="M272" s="136"/>
       <c r="N272" s="31"/>
       <c r="O272" s="34"/>
       <c r="P272" s="34"/>
@@ -31161,7 +31163,7 @@
       <c r="S272" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T272" s="184"/>
+      <c r="T272" s="183"/>
       <c r="U272" s="34"/>
       <c r="V272" s="34"/>
       <c r="W272" s="34"/>
@@ -31189,9 +31191,9 @@
       <c r="J273" t="s" s="83">
         <v>2016</v>
       </c>
-      <c r="K273" s="137"/>
-      <c r="L273" s="137"/>
-      <c r="M273" s="137"/>
+      <c r="K273" s="136"/>
+      <c r="L273" s="136"/>
+      <c r="M273" s="136"/>
       <c r="N273" s="34"/>
       <c r="O273" s="34"/>
       <c r="P273" s="34"/>
@@ -31202,7 +31204,7 @@
       <c r="S273" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T273" s="184"/>
+      <c r="T273" s="183"/>
       <c r="U273" s="34"/>
       <c r="V273" s="34"/>
       <c r="W273" s="34"/>
@@ -31227,12 +31229,12 @@
       <c r="I274" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J274" t="s" s="186">
+      <c r="J274" t="s" s="185">
         <v>2018</v>
       </c>
-      <c r="K274" s="180"/>
-      <c r="L274" s="137"/>
-      <c r="M274" s="137"/>
+      <c r="K274" s="179"/>
+      <c r="L274" s="136"/>
+      <c r="M274" s="136"/>
       <c r="N274" s="34"/>
       <c r="O274" s="34"/>
       <c r="P274" s="34"/>
@@ -31243,7 +31245,7 @@
       <c r="S274" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T274" s="184"/>
+      <c r="T274" s="183"/>
       <c r="U274" s="34"/>
       <c r="V274" s="34"/>
       <c r="W274" s="34"/>
@@ -31268,12 +31270,12 @@
       <c r="I275" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J275" t="s" s="186">
+      <c r="J275" t="s" s="185">
         <v>2020</v>
       </c>
-      <c r="K275" s="180"/>
-      <c r="L275" s="137"/>
-      <c r="M275" s="137"/>
+      <c r="K275" s="179"/>
+      <c r="L275" s="136"/>
+      <c r="M275" s="136"/>
       <c r="N275" s="34"/>
       <c r="O275" s="34"/>
       <c r="P275" s="34"/>
@@ -31284,7 +31286,7 @@
       <c r="S275" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T275" s="184"/>
+      <c r="T275" s="183"/>
       <c r="U275" s="34"/>
       <c r="V275" s="34"/>
       <c r="W275" s="34"/>
@@ -31304,13 +31306,13 @@
       <c r="F276" t="s" s="73">
         <v>2022</v>
       </c>
-      <c r="G276" s="187"/>
+      <c r="G276" s="186"/>
       <c r="H276" s="57"/>
       <c r="I276" s="109"/>
-      <c r="J276" t="s" s="186">
+      <c r="J276" t="s" s="185">
         <v>2023</v>
       </c>
-      <c r="K276" s="188"/>
+      <c r="K276" s="187"/>
       <c r="L276" s="112"/>
       <c r="M276" s="112"/>
       <c r="N276" s="34"/>
@@ -31323,7 +31325,7 @@
       <c r="S276" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T276" s="184"/>
+      <c r="T276" s="183"/>
       <c r="U276" s="34"/>
       <c r="V276" s="34"/>
       <c r="W276" s="34"/>
@@ -31344,10 +31346,10 @@
       <c r="G277" s="34"/>
       <c r="H277" s="31"/>
       <c r="I277" s="60"/>
-      <c r="J277" t="s" s="186">
+      <c r="J277" t="s" s="185">
         <v>2025</v>
       </c>
-      <c r="K277" s="188"/>
+      <c r="K277" s="187"/>
       <c r="L277" s="112"/>
       <c r="M277" s="112"/>
       <c r="N277" s="34"/>
@@ -31360,7 +31362,7 @@
       <c r="S277" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T277" s="184"/>
+      <c r="T277" s="183"/>
       <c r="U277" s="34"/>
       <c r="V277" s="34"/>
       <c r="W277" s="34"/>
@@ -31381,10 +31383,10 @@
       <c r="G278" s="34"/>
       <c r="H278" s="34"/>
       <c r="I278" s="60"/>
-      <c r="J278" t="s" s="186">
+      <c r="J278" t="s" s="185">
         <v>2027</v>
       </c>
-      <c r="K278" s="188"/>
+      <c r="K278" s="187"/>
       <c r="L278" s="112"/>
       <c r="M278" s="112"/>
       <c r="N278" s="34"/>
@@ -31397,7 +31399,7 @@
       <c r="S278" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T278" s="184"/>
+      <c r="T278" s="183"/>
       <c r="U278" s="34"/>
       <c r="V278" s="34"/>
       <c r="W278" s="34"/>
@@ -31418,7 +31420,7 @@
       <c r="G279" s="34"/>
       <c r="H279" s="34"/>
       <c r="I279" s="34"/>
-      <c r="J279" t="s" s="189">
+      <c r="J279" t="s" s="188">
         <v>2030</v>
       </c>
       <c r="K279" s="112"/>
@@ -31434,7 +31436,7 @@
       <c r="S279" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T279" s="184"/>
+      <c r="T279" s="183"/>
       <c r="U279" s="34"/>
       <c r="V279" s="34"/>
       <c r="W279" s="34"/>
@@ -31473,7 +31475,7 @@
       <c r="S280" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T280" s="184"/>
+      <c r="T280" s="183"/>
       <c r="U280" s="34"/>
       <c r="V280" s="34"/>
       <c r="W280" s="34"/>
@@ -31512,7 +31514,7 @@
       <c r="S281" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T281" s="184"/>
+      <c r="T281" s="183"/>
       <c r="U281" s="34"/>
       <c r="V281" s="34"/>
       <c r="W281" s="34"/>
@@ -31551,7 +31553,7 @@
       <c r="S282" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T282" s="184"/>
+      <c r="T282" s="183"/>
       <c r="U282" s="34"/>
       <c r="V282" s="34"/>
       <c r="W282" s="34"/>
@@ -31590,9 +31592,9 @@
       <c r="S283" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T283" s="184"/>
+      <c r="T283" s="183"/>
       <c r="U283" s="34"/>
-      <c r="V283" s="137"/>
+      <c r="V283" s="136"/>
       <c r="W283" s="34"/>
     </row>
     <row r="284" ht="13.65" customHeight="1">
@@ -31629,7 +31631,7 @@
       <c r="S284" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T284" s="184"/>
+      <c r="T284" s="183"/>
       <c r="U284" s="34"/>
       <c r="V284" s="34"/>
       <c r="W284" s="34"/>
@@ -31666,7 +31668,7 @@
       <c r="S285" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T285" s="184"/>
+      <c r="T285" s="183"/>
       <c r="U285" s="34"/>
       <c r="V285" s="34"/>
       <c r="W285" s="34"/>
@@ -31705,7 +31707,7 @@
       <c r="S286" t="s" s="91">
         <v>1380</v>
       </c>
-      <c r="T286" s="184"/>
+      <c r="T286" s="183"/>
       <c r="U286" s="34"/>
       <c r="V286" s="34"/>
       <c r="W286" s="34"/>
@@ -31729,20 +31731,20 @@
       <c r="J287" t="s" s="45">
         <v>2055</v>
       </c>
-      <c r="K287" s="171"/>
-      <c r="L287" s="171"/>
-      <c r="M287" s="171"/>
+      <c r="K287" s="170"/>
+      <c r="L287" s="170"/>
+      <c r="M287" s="170"/>
       <c r="N287" s="40"/>
       <c r="O287" s="40"/>
       <c r="P287" s="40"/>
       <c r="Q287" s="87"/>
-      <c r="R287" t="s" s="172">
+      <c r="R287" t="s" s="171">
         <v>1266</v>
       </c>
-      <c r="S287" t="s" s="172">
+      <c r="S287" t="s" s="171">
         <v>1380</v>
       </c>
-      <c r="T287" s="190"/>
+      <c r="T287" s="189"/>
       <c r="U287" s="40"/>
       <c r="V287" s="40"/>
       <c r="W287" s="40"/>
@@ -31764,20 +31766,20 @@
       <c r="J288" t="s" s="46">
         <v>2057</v>
       </c>
-      <c r="K288" s="174"/>
-      <c r="L288" s="174"/>
-      <c r="M288" s="174"/>
+      <c r="K288" s="173"/>
+      <c r="L288" s="173"/>
+      <c r="M288" s="173"/>
       <c r="N288" s="57"/>
       <c r="O288" s="57"/>
       <c r="P288" s="57"/>
-      <c r="Q288" s="158"/>
-      <c r="R288" t="s" s="159">
+      <c r="Q288" s="157"/>
+      <c r="R288" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S288" t="s" s="159">
+      <c r="S288" t="s" s="158">
         <v>1639</v>
       </c>
-      <c r="T288" s="158"/>
+      <c r="T288" s="157"/>
       <c r="U288" s="57"/>
       <c r="V288" s="57"/>
       <c r="W288" s="58"/>
@@ -31796,13 +31798,13 @@
       <c r="G289" s="31"/>
       <c r="H289" s="31"/>
       <c r="I289" s="47"/>
-      <c r="J289" t="s" s="191">
+      <c r="J289" t="s" s="190">
         <v>2059</v>
       </c>
       <c r="K289" s="31"/>
-      <c r="L289" s="175"/>
-      <c r="M289" s="175"/>
-      <c r="N289" t="s" s="191">
+      <c r="L289" s="174"/>
+      <c r="M289" s="174"/>
+      <c r="N289" t="s" s="190">
         <v>2060</v>
       </c>
       <c r="O289" s="31"/>
@@ -31814,7 +31816,7 @@
       <c r="S289" t="s" s="90">
         <v>1639</v>
       </c>
-      <c r="T289" s="192"/>
+      <c r="T289" s="191"/>
       <c r="U289" s="31"/>
       <c r="V289" s="31"/>
       <c r="W289" s="31"/>
@@ -31826,7 +31828,7 @@
       <c r="B290" t="s" s="32">
         <v>2062</v>
       </c>
-      <c r="C290" t="b" s="130">
+      <c r="C290" t="b" s="129">
         <f t="shared" si="41" ref="C290:C311">FALSE()</f>
         <v>0</v>
       </c>
@@ -31842,13 +31844,13 @@
       <c r="I290" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J290" t="s" s="193">
+      <c r="J290" t="s" s="192">
         <v>2063</v>
       </c>
       <c r="K290" s="34"/>
       <c r="L290" s="112"/>
       <c r="M290" s="112"/>
-      <c r="N290" t="s" s="194">
+      <c r="N290" t="s" s="193">
         <v>2064</v>
       </c>
       <c r="O290" s="34"/>
@@ -31860,7 +31862,7 @@
       <c r="S290" t="s" s="91">
         <v>1639</v>
       </c>
-      <c r="T290" s="195"/>
+      <c r="T290" s="194"/>
       <c r="U290" s="34"/>
       <c r="V290" s="34"/>
       <c r="W290" s="34"/>
@@ -31872,7 +31874,7 @@
       <c r="B291" t="s" s="32">
         <v>2065</v>
       </c>
-      <c r="C291" t="b" s="130">
+      <c r="C291" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -31888,13 +31890,13 @@
       <c r="I291" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J291" t="s" s="193">
+      <c r="J291" t="s" s="192">
         <v>2066</v>
       </c>
       <c r="K291" s="34"/>
       <c r="L291" s="112"/>
       <c r="M291" s="112"/>
-      <c r="N291" t="s" s="194">
+      <c r="N291" t="s" s="193">
         <v>2067</v>
       </c>
       <c r="O291" s="34"/>
@@ -31906,7 +31908,7 @@
       <c r="S291" t="s" s="91">
         <v>1639</v>
       </c>
-      <c r="T291" s="195"/>
+      <c r="T291" s="194"/>
       <c r="U291" s="34"/>
       <c r="V291" s="34"/>
       <c r="W291" s="34"/>
@@ -31918,7 +31920,7 @@
       <c r="B292" t="s" s="32">
         <v>2068</v>
       </c>
-      <c r="C292" t="b" s="130">
+      <c r="C292" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -31934,13 +31936,13 @@
       <c r="I292" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J292" t="s" s="193">
+      <c r="J292" t="s" s="192">
         <v>2069</v>
       </c>
       <c r="K292" s="34"/>
       <c r="L292" s="112"/>
       <c r="M292" s="112"/>
-      <c r="N292" t="s" s="194">
+      <c r="N292" t="s" s="193">
         <v>2070</v>
       </c>
       <c r="O292" s="34"/>
@@ -31952,7 +31954,7 @@
       <c r="S292" t="s" s="91">
         <v>1639</v>
       </c>
-      <c r="T292" s="195"/>
+      <c r="T292" s="194"/>
       <c r="U292" s="34"/>
       <c r="V292" s="34"/>
       <c r="W292" s="34"/>
@@ -31964,7 +31966,7 @@
       <c r="B293" t="s" s="32">
         <v>2071</v>
       </c>
-      <c r="C293" t="b" s="130">
+      <c r="C293" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -31980,13 +31982,13 @@
       <c r="I293" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J293" t="s" s="193">
+      <c r="J293" t="s" s="192">
         <v>2072</v>
       </c>
       <c r="K293" s="34"/>
       <c r="L293" s="112"/>
       <c r="M293" s="112"/>
-      <c r="N293" t="s" s="194">
+      <c r="N293" t="s" s="193">
         <v>2073</v>
       </c>
       <c r="O293" s="34"/>
@@ -31998,7 +32000,7 @@
       <c r="S293" t="s" s="91">
         <v>1639</v>
       </c>
-      <c r="T293" s="195"/>
+      <c r="T293" s="194"/>
       <c r="U293" s="34"/>
       <c r="V293" s="34"/>
       <c r="W293" s="34"/>
@@ -32010,7 +32012,7 @@
       <c r="B294" t="s" s="32">
         <v>2074</v>
       </c>
-      <c r="C294" t="b" s="130">
+      <c r="C294" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32026,13 +32028,13 @@
       <c r="I294" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J294" t="s" s="193">
+      <c r="J294" t="s" s="192">
         <v>2075</v>
       </c>
       <c r="K294" s="34"/>
       <c r="L294" s="112"/>
       <c r="M294" s="112"/>
-      <c r="N294" t="s" s="194">
+      <c r="N294" t="s" s="193">
         <v>2076</v>
       </c>
       <c r="O294" s="34"/>
@@ -32044,7 +32046,7 @@
       <c r="S294" t="s" s="91">
         <v>1639</v>
       </c>
-      <c r="T294" s="195"/>
+      <c r="T294" s="194"/>
       <c r="U294" s="34"/>
       <c r="V294" s="34"/>
       <c r="W294" s="34"/>
@@ -32056,7 +32058,7 @@
       <c r="B295" t="s" s="32">
         <v>2077</v>
       </c>
-      <c r="C295" t="b" s="130">
+      <c r="C295" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32072,13 +32074,13 @@
       <c r="I295" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J295" t="s" s="193">
+      <c r="J295" t="s" s="192">
         <v>2078</v>
       </c>
       <c r="K295" s="34"/>
       <c r="L295" s="112"/>
       <c r="M295" s="112"/>
-      <c r="N295" t="s" s="194">
+      <c r="N295" t="s" s="193">
         <v>2079</v>
       </c>
       <c r="O295" s="34"/>
@@ -32090,7 +32092,7 @@
       <c r="S295" t="s" s="91">
         <v>1639</v>
       </c>
-      <c r="T295" s="195"/>
+      <c r="T295" s="194"/>
       <c r="U295" s="34"/>
       <c r="V295" s="34"/>
       <c r="W295" s="34"/>
@@ -32102,7 +32104,7 @@
       <c r="B296" t="s" s="32">
         <v>2080</v>
       </c>
-      <c r="C296" t="b" s="130">
+      <c r="C296" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32118,13 +32120,13 @@
       <c r="I296" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J296" t="s" s="193">
+      <c r="J296" t="s" s="192">
         <v>2081</v>
       </c>
       <c r="K296" s="34"/>
       <c r="L296" s="112"/>
       <c r="M296" s="112"/>
-      <c r="N296" t="s" s="194">
+      <c r="N296" t="s" s="193">
         <v>2082</v>
       </c>
       <c r="O296" s="34"/>
@@ -32136,7 +32138,7 @@
       <c r="S296" t="s" s="91">
         <v>1639</v>
       </c>
-      <c r="T296" s="195"/>
+      <c r="T296" s="194"/>
       <c r="U296" s="34"/>
       <c r="V296" s="34"/>
       <c r="W296" s="34"/>
@@ -32148,7 +32150,7 @@
       <c r="B297" t="s" s="32">
         <v>2083</v>
       </c>
-      <c r="C297" t="b" s="130">
+      <c r="C297" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32164,13 +32166,13 @@
       <c r="I297" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J297" t="s" s="193">
+      <c r="J297" t="s" s="192">
         <v>2084</v>
       </c>
       <c r="K297" s="34"/>
       <c r="L297" s="112"/>
       <c r="M297" s="112"/>
-      <c r="N297" t="s" s="194">
+      <c r="N297" t="s" s="193">
         <v>2085</v>
       </c>
       <c r="O297" s="34"/>
@@ -32182,7 +32184,7 @@
       <c r="S297" t="s" s="91">
         <v>1639</v>
       </c>
-      <c r="T297" s="195"/>
+      <c r="T297" s="194"/>
       <c r="U297" s="34"/>
       <c r="V297" s="34"/>
       <c r="W297" s="34"/>
@@ -32194,7 +32196,7 @@
       <c r="B298" t="s" s="32">
         <v>2086</v>
       </c>
-      <c r="C298" t="b" s="130">
+      <c r="C298" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32206,11 +32208,11 @@
       <c r="G298" s="34"/>
       <c r="H298" s="34"/>
       <c r="I298" s="31"/>
-      <c r="J298" s="196"/>
+      <c r="J298" s="195"/>
       <c r="K298" s="34"/>
       <c r="L298" s="112"/>
       <c r="M298" s="112"/>
-      <c r="N298" s="196"/>
+      <c r="N298" s="195"/>
       <c r="O298" s="34"/>
       <c r="P298" s="34"/>
       <c r="Q298" s="92"/>
@@ -32232,23 +32234,23 @@
       <c r="B299" t="s" s="32">
         <v>2088</v>
       </c>
-      <c r="C299" t="b" s="130">
+      <c r="C299" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="D299" s="34"/>
       <c r="E299" s="34"/>
-      <c r="F299" t="s" s="197">
+      <c r="F299" t="s" s="196">
         <v>2089</v>
       </c>
-      <c r="G299" s="198"/>
+      <c r="G299" s="197"/>
       <c r="H299" s="34"/>
       <c r="I299" s="34"/>
-      <c r="J299" s="196"/>
+      <c r="J299" s="195"/>
       <c r="K299" s="34"/>
       <c r="L299" s="112"/>
       <c r="M299" s="112"/>
-      <c r="N299" s="196"/>
+      <c r="N299" s="195"/>
       <c r="O299" s="34"/>
       <c r="P299" s="34"/>
       <c r="Q299" s="92"/>
@@ -32270,7 +32272,7 @@
       <c r="B300" t="s" s="32">
         <v>2090</v>
       </c>
-      <c r="C300" t="b" s="130">
+      <c r="C300" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32282,11 +32284,11 @@
       <c r="G300" s="34"/>
       <c r="H300" s="34"/>
       <c r="I300" s="34"/>
-      <c r="J300" s="196"/>
+      <c r="J300" s="195"/>
       <c r="K300" s="34"/>
       <c r="L300" s="112"/>
       <c r="M300" s="112"/>
-      <c r="N300" s="196"/>
+      <c r="N300" s="195"/>
       <c r="O300" s="34"/>
       <c r="P300" s="34"/>
       <c r="Q300" s="92"/>
@@ -32308,7 +32310,7 @@
       <c r="B301" t="s" s="32">
         <v>2092</v>
       </c>
-      <c r="C301" t="b" s="130">
+      <c r="C301" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32320,11 +32322,11 @@
       <c r="G301" s="34"/>
       <c r="H301" s="34"/>
       <c r="I301" s="34"/>
-      <c r="J301" s="196"/>
+      <c r="J301" s="195"/>
       <c r="K301" s="34"/>
       <c r="L301" s="112"/>
       <c r="M301" s="112"/>
-      <c r="N301" s="196"/>
+      <c r="N301" s="195"/>
       <c r="O301" s="34"/>
       <c r="P301" s="34"/>
       <c r="Q301" s="92"/>
@@ -32346,7 +32348,7 @@
       <c r="B302" t="s" s="32">
         <v>2094</v>
       </c>
-      <c r="C302" t="b" s="130">
+      <c r="C302" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32358,11 +32360,11 @@
       <c r="G302" s="34"/>
       <c r="H302" s="34"/>
       <c r="I302" s="34"/>
-      <c r="J302" s="196"/>
+      <c r="J302" s="195"/>
       <c r="K302" s="34"/>
       <c r="L302" s="112"/>
       <c r="M302" s="112"/>
-      <c r="N302" s="196"/>
+      <c r="N302" s="195"/>
       <c r="O302" s="34"/>
       <c r="P302" s="34"/>
       <c r="Q302" s="92"/>
@@ -32384,7 +32386,7 @@
       <c r="B303" t="s" s="32">
         <v>2096</v>
       </c>
-      <c r="C303" t="b" s="130">
+      <c r="C303" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32396,11 +32398,11 @@
       <c r="G303" s="34"/>
       <c r="H303" s="34"/>
       <c r="I303" s="34"/>
-      <c r="J303" s="196"/>
+      <c r="J303" s="195"/>
       <c r="K303" s="34"/>
       <c r="L303" s="112"/>
       <c r="M303" s="112"/>
-      <c r="N303" s="196"/>
+      <c r="N303" s="195"/>
       <c r="O303" s="34"/>
       <c r="P303" s="34"/>
       <c r="Q303" s="92"/>
@@ -32422,7 +32424,7 @@
       <c r="B304" t="s" s="32">
         <v>2098</v>
       </c>
-      <c r="C304" t="b" s="130">
+      <c r="C304" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32434,11 +32436,11 @@
       <c r="G304" s="34"/>
       <c r="H304" s="34"/>
       <c r="I304" s="34"/>
-      <c r="J304" s="196"/>
+      <c r="J304" s="195"/>
       <c r="K304" s="34"/>
       <c r="L304" s="112"/>
       <c r="M304" s="112"/>
-      <c r="N304" s="196"/>
+      <c r="N304" s="195"/>
       <c r="O304" s="34"/>
       <c r="P304" s="34"/>
       <c r="Q304" s="92"/>
@@ -32460,7 +32462,7 @@
       <c r="B305" t="s" s="32">
         <v>2100</v>
       </c>
-      <c r="C305" t="b" s="130">
+      <c r="C305" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32472,11 +32474,11 @@
       <c r="G305" s="34"/>
       <c r="H305" s="34"/>
       <c r="I305" s="34"/>
-      <c r="J305" s="196"/>
+      <c r="J305" s="195"/>
       <c r="K305" s="34"/>
       <c r="L305" s="112"/>
       <c r="M305" s="112"/>
-      <c r="N305" s="196"/>
+      <c r="N305" s="195"/>
       <c r="O305" s="34"/>
       <c r="P305" s="34"/>
       <c r="Q305" s="92"/>
@@ -32498,7 +32500,7 @@
       <c r="B306" t="s" s="32">
         <v>2102</v>
       </c>
-      <c r="C306" t="b" s="130">
+      <c r="C306" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32510,11 +32512,11 @@
       <c r="G306" s="34"/>
       <c r="H306" s="34"/>
       <c r="I306" s="34"/>
-      <c r="J306" s="196"/>
+      <c r="J306" s="195"/>
       <c r="K306" s="34"/>
       <c r="L306" s="112"/>
       <c r="M306" s="112"/>
-      <c r="N306" s="196"/>
+      <c r="N306" s="195"/>
       <c r="O306" s="34"/>
       <c r="P306" s="34"/>
       <c r="Q306" s="92"/>
@@ -32536,7 +32538,7 @@
       <c r="B307" t="s" s="32">
         <v>2104</v>
       </c>
-      <c r="C307" t="b" s="130">
+      <c r="C307" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32548,11 +32550,11 @@
       <c r="G307" s="34"/>
       <c r="H307" s="34"/>
       <c r="I307" s="34"/>
-      <c r="J307" s="196"/>
+      <c r="J307" s="195"/>
       <c r="K307" s="34"/>
       <c r="L307" s="112"/>
       <c r="M307" s="112"/>
-      <c r="N307" s="196"/>
+      <c r="N307" s="195"/>
       <c r="O307" s="34"/>
       <c r="P307" s="34"/>
       <c r="Q307" s="92"/>
@@ -32574,7 +32576,7 @@
       <c r="B308" t="s" s="32">
         <v>2106</v>
       </c>
-      <c r="C308" t="b" s="130">
+      <c r="C308" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32586,11 +32588,11 @@
       <c r="G308" s="34"/>
       <c r="H308" s="34"/>
       <c r="I308" s="34"/>
-      <c r="J308" s="196"/>
+      <c r="J308" s="195"/>
       <c r="K308" s="34"/>
       <c r="L308" s="112"/>
       <c r="M308" s="112"/>
-      <c r="N308" s="196"/>
+      <c r="N308" s="195"/>
       <c r="O308" s="34"/>
       <c r="P308" s="34"/>
       <c r="Q308" s="92"/>
@@ -32612,7 +32614,7 @@
       <c r="B309" t="s" s="32">
         <v>2108</v>
       </c>
-      <c r="C309" t="b" s="130">
+      <c r="C309" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32624,11 +32626,11 @@
       <c r="G309" s="34"/>
       <c r="H309" s="34"/>
       <c r="I309" s="34"/>
-      <c r="J309" s="196"/>
+      <c r="J309" s="195"/>
       <c r="K309" s="34"/>
       <c r="L309" s="112"/>
       <c r="M309" s="112"/>
-      <c r="N309" s="196"/>
+      <c r="N309" s="195"/>
       <c r="O309" s="34"/>
       <c r="P309" s="34"/>
       <c r="Q309" s="92"/>
@@ -32650,7 +32652,7 @@
       <c r="B310" t="s" s="32">
         <v>2110</v>
       </c>
-      <c r="C310" t="b" s="130">
+      <c r="C310" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32662,11 +32664,11 @@
       <c r="G310" s="34"/>
       <c r="H310" s="34"/>
       <c r="I310" s="34"/>
-      <c r="J310" s="196"/>
+      <c r="J310" s="195"/>
       <c r="K310" s="34"/>
       <c r="L310" s="112"/>
       <c r="M310" s="112"/>
-      <c r="N310" s="196"/>
+      <c r="N310" s="195"/>
       <c r="O310" s="34"/>
       <c r="P310" s="34"/>
       <c r="Q310" s="92"/>
@@ -32688,7 +32690,7 @@
       <c r="B311" t="s" s="32">
         <v>2112</v>
       </c>
-      <c r="C311" t="b" s="130">
+      <c r="C311" t="b" s="129">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -32700,13 +32702,13 @@
       <c r="G311" s="34"/>
       <c r="H311" s="34"/>
       <c r="I311" s="34"/>
-      <c r="J311" t="s" s="194">
+      <c r="J311" t="s" s="193">
         <v>2114</v>
       </c>
       <c r="K311" s="34"/>
       <c r="L311" s="112"/>
       <c r="M311" s="112"/>
-      <c r="N311" s="196"/>
+      <c r="N311" s="195"/>
       <c r="O311" s="34"/>
       <c r="P311" s="34"/>
       <c r="Q311" s="92"/>
@@ -32735,20 +32737,20 @@
       <c r="G312" s="40"/>
       <c r="H312" s="40"/>
       <c r="I312" s="40"/>
-      <c r="J312" t="s" s="199">
+      <c r="J312" t="s" s="198">
         <v>2116</v>
       </c>
       <c r="K312" s="40"/>
-      <c r="L312" s="171"/>
-      <c r="M312" s="171"/>
-      <c r="N312" s="200"/>
+      <c r="L312" s="170"/>
+      <c r="M312" s="170"/>
+      <c r="N312" s="199"/>
       <c r="O312" s="40"/>
       <c r="P312" s="40"/>
       <c r="Q312" s="87"/>
-      <c r="R312" t="s" s="172">
+      <c r="R312" t="s" s="171">
         <v>1266</v>
       </c>
-      <c r="S312" t="s" s="172">
+      <c r="S312" t="s" s="171">
         <v>1639</v>
       </c>
       <c r="T312" s="40"/>
@@ -32770,18 +32772,18 @@
       <c r="G313" s="57"/>
       <c r="H313" s="57"/>
       <c r="I313" s="57"/>
-      <c r="J313" s="201"/>
+      <c r="J313" s="200"/>
       <c r="K313" s="57"/>
-      <c r="L313" s="174"/>
-      <c r="M313" s="174"/>
-      <c r="N313" s="201"/>
+      <c r="L313" s="173"/>
+      <c r="M313" s="173"/>
+      <c r="N313" s="200"/>
       <c r="O313" s="57"/>
       <c r="P313" s="57"/>
-      <c r="Q313" s="158"/>
-      <c r="R313" t="s" s="159">
+      <c r="Q313" s="157"/>
+      <c r="R313" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S313" t="s" s="159">
+      <c r="S313" t="s" s="158">
         <v>1639</v>
       </c>
       <c r="T313" s="57"/>
@@ -32803,22 +32805,22 @@
       <c r="G314" s="57"/>
       <c r="H314" s="57"/>
       <c r="I314" s="57"/>
-      <c r="J314" s="174"/>
-      <c r="K314" s="174"/>
-      <c r="L314" s="174"/>
-      <c r="M314" s="174"/>
-      <c r="N314" s="174"/>
+      <c r="J314" s="173"/>
+      <c r="K314" s="173"/>
+      <c r="L314" s="173"/>
+      <c r="M314" s="173"/>
+      <c r="N314" s="173"/>
       <c r="O314" s="57"/>
-      <c r="P314" s="174"/>
-      <c r="Q314" s="174"/>
+      <c r="P314" s="173"/>
+      <c r="Q314" s="173"/>
       <c r="R314" t="s" s="46">
         <v>1266</v>
       </c>
       <c r="S314" t="s" s="46">
         <v>1380</v>
       </c>
-      <c r="T314" s="174"/>
-      <c r="U314" s="174"/>
+      <c r="T314" s="173"/>
+      <c r="U314" s="173"/>
       <c r="V314" s="57"/>
       <c r="W314" s="58"/>
     </row>
@@ -32858,7 +32860,7 @@
       </c>
       <c r="T315" s="57"/>
       <c r="U315" s="57"/>
-      <c r="V315" s="160"/>
+      <c r="V315" s="159"/>
       <c r="W315" s="31"/>
     </row>
     <row r="316" ht="13.65" customHeight="1">
@@ -32875,12 +32877,12 @@
       <c r="G316" s="31"/>
       <c r="H316" s="31"/>
       <c r="I316" s="31"/>
-      <c r="J316" t="s" s="189">
+      <c r="J316" t="s" s="188">
         <v>2120</v>
       </c>
-      <c r="K316" s="175"/>
-      <c r="L316" s="175"/>
-      <c r="M316" s="175"/>
+      <c r="K316" s="174"/>
+      <c r="L316" s="174"/>
+      <c r="M316" s="174"/>
       <c r="N316" s="31"/>
       <c r="O316" s="31"/>
       <c r="P316" s="31"/>
@@ -33292,10 +33294,10 @@
       <c r="O327" s="40"/>
       <c r="P327" s="87"/>
       <c r="Q327" s="87"/>
-      <c r="R327" t="s" s="172">
+      <c r="R327" t="s" s="171">
         <v>1266</v>
       </c>
-      <c r="S327" t="s" s="172">
+      <c r="S327" t="s" s="171">
         <v>1380</v>
       </c>
       <c r="T327" s="40"/>
@@ -33315,22 +33317,22 @@
       <c r="G328" s="57"/>
       <c r="H328" s="57"/>
       <c r="I328" s="57"/>
-      <c r="J328" s="174"/>
-      <c r="K328" s="174"/>
-      <c r="L328" s="174"/>
-      <c r="M328" s="174"/>
+      <c r="J328" s="173"/>
+      <c r="K328" s="173"/>
+      <c r="L328" s="173"/>
+      <c r="M328" s="173"/>
       <c r="N328" s="57"/>
       <c r="O328" s="57"/>
       <c r="P328" s="57"/>
-      <c r="Q328" s="158"/>
-      <c r="R328" t="s" s="159">
+      <c r="Q328" s="157"/>
+      <c r="R328" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S328" t="s" s="159">
+      <c r="S328" t="s" s="158">
         <v>1380</v>
       </c>
-      <c r="T328" s="158"/>
-      <c r="U328" s="158"/>
+      <c r="T328" s="157"/>
+      <c r="U328" s="157"/>
       <c r="V328" s="42"/>
       <c r="W328" s="34"/>
     </row>
@@ -33355,21 +33357,21 @@
       <c r="J329" t="s" s="38">
         <v>2144</v>
       </c>
-      <c r="K329" s="174"/>
-      <c r="L329" s="174"/>
-      <c r="M329" s="174"/>
+      <c r="K329" s="173"/>
+      <c r="L329" s="173"/>
+      <c r="M329" s="173"/>
       <c r="N329" s="57"/>
       <c r="O329" s="57"/>
-      <c r="P329" s="158"/>
-      <c r="Q329" s="158"/>
-      <c r="R329" t="s" s="159">
+      <c r="P329" s="157"/>
+      <c r="Q329" s="157"/>
+      <c r="R329" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S329" t="s" s="159">
+      <c r="S329" t="s" s="158">
         <v>1639</v>
       </c>
-      <c r="T329" s="158"/>
-      <c r="U329" s="158"/>
+      <c r="T329" s="157"/>
+      <c r="U329" s="157"/>
       <c r="V329" s="42"/>
       <c r="W329" s="34"/>
     </row>
@@ -33397,14 +33399,14 @@
       <c r="O330" s="31"/>
       <c r="P330" s="89"/>
       <c r="Q330" s="89"/>
-      <c r="R330" t="s" s="202">
+      <c r="R330" t="s" s="201">
         <v>1266</v>
       </c>
-      <c r="S330" t="s" s="202">
+      <c r="S330" t="s" s="201">
         <v>1639</v>
       </c>
-      <c r="T330" s="203"/>
-      <c r="U330" s="203"/>
+      <c r="T330" s="202"/>
+      <c r="U330" s="202"/>
       <c r="V330" s="34"/>
       <c r="W330" s="34"/>
     </row>
@@ -33444,7 +33446,7 @@
       <c r="S331" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T331" s="168"/>
+      <c r="T331" s="167"/>
       <c r="U331" s="34"/>
       <c r="V331" s="34"/>
       <c r="W331" s="34"/>
@@ -33481,7 +33483,7 @@
       <c r="S332" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T332" s="168"/>
+      <c r="T332" s="167"/>
       <c r="U332" s="34"/>
       <c r="V332" s="34"/>
       <c r="W332" s="34"/>
@@ -33524,7 +33526,7 @@
       <c r="S333" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T333" s="168"/>
+      <c r="T333" s="167"/>
       <c r="U333" s="34"/>
       <c r="V333" s="34"/>
       <c r="W333" s="34"/>
@@ -33567,7 +33569,7 @@
       <c r="S334" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T334" s="168"/>
+      <c r="T334" s="167"/>
       <c r="U334" s="34"/>
       <c r="V334" s="34"/>
       <c r="W334" s="34"/>
@@ -33610,7 +33612,7 @@
       <c r="S335" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T335" s="168"/>
+      <c r="T335" s="167"/>
       <c r="U335" s="34"/>
       <c r="V335" s="34"/>
       <c r="W335" s="34"/>
@@ -33653,7 +33655,7 @@
       <c r="S336" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T336" s="168"/>
+      <c r="T336" s="167"/>
       <c r="U336" s="34"/>
       <c r="V336" s="34"/>
       <c r="W336" s="34"/>
@@ -33696,7 +33698,7 @@
       <c r="S337" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T337" s="168"/>
+      <c r="T337" s="167"/>
       <c r="U337" s="34"/>
       <c r="V337" s="34"/>
       <c r="W337" s="34"/>
@@ -33739,7 +33741,7 @@
       <c r="S338" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T338" s="168"/>
+      <c r="T338" s="167"/>
       <c r="U338" s="34"/>
       <c r="V338" s="34"/>
       <c r="W338" s="34"/>
@@ -33782,7 +33784,7 @@
       <c r="S339" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T339" s="168"/>
+      <c r="T339" s="167"/>
       <c r="U339" s="34"/>
       <c r="V339" s="34"/>
       <c r="W339" s="34"/>
@@ -33825,7 +33827,7 @@
       <c r="S340" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T340" s="168"/>
+      <c r="T340" s="167"/>
       <c r="U340" s="34"/>
       <c r="V340" s="34"/>
       <c r="W340" s="34"/>
@@ -33868,7 +33870,7 @@
       <c r="S341" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T341" s="168"/>
+      <c r="T341" s="167"/>
       <c r="U341" s="34"/>
       <c r="V341" s="34"/>
       <c r="W341" s="34"/>
@@ -33965,7 +33967,7 @@
       <c r="G344" s="40"/>
       <c r="H344" s="40"/>
       <c r="I344" s="40"/>
-      <c r="J344" t="s" s="199">
+      <c r="J344" t="s" s="198">
         <v>2178</v>
       </c>
       <c r="K344" s="40"/>
@@ -33975,10 +33977,10 @@
       <c r="O344" s="40"/>
       <c r="P344" s="87"/>
       <c r="Q344" s="87"/>
-      <c r="R344" t="s" s="204">
+      <c r="R344" t="s" s="203">
         <v>1266</v>
       </c>
-      <c r="S344" t="s" s="204">
+      <c r="S344" t="s" s="203">
         <v>1639</v>
       </c>
       <c r="T344" s="87"/>
@@ -34011,7 +34013,7 @@
       <c r="R345" t="s" s="38">
         <v>1266</v>
       </c>
-      <c r="S345" t="s" s="205">
+      <c r="S345" t="s" s="204">
         <v>1639</v>
       </c>
       <c r="T345" s="57"/>
@@ -34040,21 +34042,21 @@
       <c r="J346" t="s" s="38">
         <v>2181</v>
       </c>
-      <c r="K346" s="174"/>
-      <c r="L346" s="174"/>
-      <c r="M346" s="174"/>
+      <c r="K346" s="173"/>
+      <c r="L346" s="173"/>
+      <c r="M346" s="173"/>
       <c r="N346" s="57"/>
       <c r="O346" s="57"/>
-      <c r="P346" s="158"/>
-      <c r="Q346" s="158"/>
-      <c r="R346" t="s" s="159">
+      <c r="P346" s="157"/>
+      <c r="Q346" s="157"/>
+      <c r="R346" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S346" t="s" s="159">
+      <c r="S346" t="s" s="158">
         <v>1639</v>
       </c>
-      <c r="T346" s="158"/>
-      <c r="U346" s="158"/>
+      <c r="T346" s="157"/>
+      <c r="U346" s="157"/>
       <c r="V346" s="42"/>
       <c r="W346" s="34"/>
     </row>
@@ -34082,14 +34084,14 @@
       <c r="O347" s="31"/>
       <c r="P347" s="89"/>
       <c r="Q347" s="89"/>
-      <c r="R347" t="s" s="202">
+      <c r="R347" t="s" s="201">
         <v>1266</v>
       </c>
-      <c r="S347" t="s" s="202">
+      <c r="S347" t="s" s="201">
         <v>1639</v>
       </c>
-      <c r="T347" s="203"/>
-      <c r="U347" s="203"/>
+      <c r="T347" s="202"/>
+      <c r="U347" s="202"/>
       <c r="V347" s="34"/>
       <c r="W347" s="34"/>
     </row>
@@ -34164,7 +34166,7 @@
       <c r="S349" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T349" s="184"/>
+      <c r="T349" s="183"/>
       <c r="U349" s="92"/>
       <c r="V349" s="34"/>
       <c r="W349" s="34"/>
@@ -34203,7 +34205,7 @@
       <c r="S350" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T350" s="184"/>
+      <c r="T350" s="183"/>
       <c r="U350" s="92"/>
       <c r="V350" s="34"/>
       <c r="W350" s="34"/>
@@ -34242,7 +34244,7 @@
       <c r="S351" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T351" s="184"/>
+      <c r="T351" s="183"/>
       <c r="U351" s="92"/>
       <c r="V351" s="34"/>
       <c r="W351" s="34"/>
@@ -34281,7 +34283,7 @@
       <c r="S352" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T352" s="184"/>
+      <c r="T352" s="183"/>
       <c r="U352" s="92"/>
       <c r="V352" s="34"/>
       <c r="W352" s="34"/>
@@ -34320,7 +34322,7 @@
       <c r="S353" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T353" s="184"/>
+      <c r="T353" s="183"/>
       <c r="U353" s="92"/>
       <c r="V353" s="34"/>
       <c r="W353" s="34"/>
@@ -34357,7 +34359,7 @@
       <c r="S354" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T354" s="184"/>
+      <c r="T354" s="183"/>
       <c r="U354" s="92"/>
       <c r="V354" s="34"/>
       <c r="W354" s="34"/>
@@ -34394,7 +34396,7 @@
       <c r="S355" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T355" s="184"/>
+      <c r="T355" s="183"/>
       <c r="U355" s="92"/>
       <c r="V355" s="34"/>
       <c r="W355" s="34"/>
@@ -34433,7 +34435,7 @@
       <c r="S356" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T356" s="184"/>
+      <c r="T356" s="183"/>
       <c r="U356" s="92"/>
       <c r="V356" s="34"/>
       <c r="W356" s="34"/>
@@ -34472,7 +34474,7 @@
       <c r="S357" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T357" s="184"/>
+      <c r="T357" s="183"/>
       <c r="U357" s="92"/>
       <c r="V357" s="34"/>
       <c r="W357" s="34"/>
@@ -34511,7 +34513,7 @@
       <c r="S358" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T358" s="184"/>
+      <c r="T358" s="183"/>
       <c r="U358" s="92"/>
       <c r="V358" s="34"/>
       <c r="W358" s="34"/>
@@ -34550,7 +34552,7 @@
       <c r="S359" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T359" s="184"/>
+      <c r="T359" s="183"/>
       <c r="U359" s="92"/>
       <c r="V359" s="34"/>
       <c r="W359" s="34"/>
@@ -34589,7 +34591,7 @@
       <c r="S360" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T360" s="184"/>
+      <c r="T360" s="183"/>
       <c r="U360" s="92"/>
       <c r="V360" s="34"/>
       <c r="W360" s="34"/>
@@ -34647,7 +34649,7 @@
       <c r="G362" s="40"/>
       <c r="H362" s="40"/>
       <c r="I362" s="40"/>
-      <c r="J362" t="s" s="199">
+      <c r="J362" t="s" s="198">
         <v>2205</v>
       </c>
       <c r="K362" s="40"/>
@@ -34657,10 +34659,10 @@
       <c r="O362" s="40"/>
       <c r="P362" s="87"/>
       <c r="Q362" s="87"/>
-      <c r="R362" t="s" s="204">
+      <c r="R362" t="s" s="203">
         <v>1266</v>
       </c>
-      <c r="S362" t="s" s="204">
+      <c r="S362" t="s" s="203">
         <v>1639</v>
       </c>
       <c r="T362" s="87"/>
@@ -34764,14 +34766,14 @@
       <c r="O365" s="31"/>
       <c r="P365" s="89"/>
       <c r="Q365" s="89"/>
-      <c r="R365" t="s" s="202">
+      <c r="R365" t="s" s="201">
         <v>1266</v>
       </c>
-      <c r="S365" t="s" s="202">
+      <c r="S365" t="s" s="201">
         <v>1380</v>
       </c>
-      <c r="T365" s="203"/>
-      <c r="U365" s="203"/>
+      <c r="T365" s="202"/>
+      <c r="U365" s="202"/>
       <c r="V365" s="34"/>
       <c r="W365" s="34"/>
     </row>
@@ -34807,8 +34809,8 @@
       <c r="S366" t="s" s="95">
         <v>1380</v>
       </c>
-      <c r="T366" s="206"/>
-      <c r="U366" s="206"/>
+      <c r="T366" s="205"/>
+      <c r="U366" s="205"/>
       <c r="V366" s="34"/>
       <c r="W366" s="34"/>
     </row>
@@ -34846,8 +34848,8 @@
       <c r="S367" t="s" s="95">
         <v>1380</v>
       </c>
-      <c r="T367" s="206"/>
-      <c r="U367" s="206"/>
+      <c r="T367" s="205"/>
+      <c r="U367" s="205"/>
       <c r="V367" s="34"/>
       <c r="W367" s="34"/>
     </row>
@@ -34879,14 +34881,14 @@
       <c r="O368" s="40"/>
       <c r="P368" s="87"/>
       <c r="Q368" s="87"/>
-      <c r="R368" t="s" s="204">
+      <c r="R368" t="s" s="203">
         <v>1266</v>
       </c>
-      <c r="S368" t="s" s="204">
+      <c r="S368" t="s" s="203">
         <v>1380</v>
       </c>
-      <c r="T368" s="207"/>
-      <c r="U368" s="207"/>
+      <c r="T368" s="206"/>
+      <c r="U368" s="206"/>
       <c r="V368" s="34"/>
       <c r="W368" s="34"/>
     </row>
@@ -34944,21 +34946,21 @@
       <c r="J370" t="s" s="38">
         <v>2220</v>
       </c>
-      <c r="K370" s="174"/>
-      <c r="L370" s="174"/>
-      <c r="M370" s="174"/>
+      <c r="K370" s="173"/>
+      <c r="L370" s="173"/>
+      <c r="M370" s="173"/>
       <c r="N370" s="57"/>
       <c r="O370" s="57"/>
       <c r="P370" s="57"/>
-      <c r="Q370" s="158"/>
-      <c r="R370" t="s" s="159">
+      <c r="Q370" s="157"/>
+      <c r="R370" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S370" t="s" s="159">
+      <c r="S370" t="s" s="158">
         <v>1380</v>
       </c>
-      <c r="T370" s="158"/>
-      <c r="U370" s="158"/>
+      <c r="T370" s="157"/>
+      <c r="U370" s="157"/>
       <c r="V370" s="42"/>
       <c r="W370" s="34"/>
     </row>
@@ -34979,9 +34981,9 @@
       <c r="J371" t="s" s="29">
         <v>2222</v>
       </c>
-      <c r="K371" s="175"/>
-      <c r="L371" s="175"/>
-      <c r="M371" s="175"/>
+      <c r="K371" s="174"/>
+      <c r="L371" s="174"/>
+      <c r="M371" s="174"/>
       <c r="N371" s="31"/>
       <c r="O371" s="31"/>
       <c r="P371" s="31"/>
@@ -35017,7 +35019,7 @@
         <v>2225</v>
       </c>
       <c r="K372" s="34"/>
-      <c r="L372" s="139"/>
+      <c r="L372" s="138"/>
       <c r="M372" s="34"/>
       <c r="N372" s="34"/>
       <c r="O372" s="34"/>
@@ -35052,7 +35054,7 @@
         <v>2227</v>
       </c>
       <c r="K373" s="34"/>
-      <c r="L373" s="139"/>
+      <c r="L373" s="138"/>
       <c r="M373" s="34"/>
       <c r="N373" s="34"/>
       <c r="O373" s="34"/>
@@ -35645,17 +35647,17 @@
       <c r="J389" t="s" s="36">
         <v>2261</v>
       </c>
-      <c r="K389" s="171"/>
-      <c r="L389" s="171"/>
-      <c r="M389" s="171"/>
+      <c r="K389" s="170"/>
+      <c r="L389" s="170"/>
+      <c r="M389" s="170"/>
       <c r="N389" s="40"/>
       <c r="O389" s="40"/>
       <c r="P389" s="40"/>
       <c r="Q389" s="87"/>
-      <c r="R389" t="s" s="172">
+      <c r="R389" t="s" s="171">
         <v>1266</v>
       </c>
-      <c r="S389" t="s" s="172">
+      <c r="S389" t="s" s="171">
         <v>1380</v>
       </c>
       <c r="T389" s="87"/>
@@ -35678,21 +35680,21 @@
       <c r="H390" s="57"/>
       <c r="I390" s="57"/>
       <c r="J390" s="57"/>
-      <c r="K390" s="174"/>
-      <c r="L390" s="174"/>
-      <c r="M390" s="174"/>
+      <c r="K390" s="173"/>
+      <c r="L390" s="173"/>
+      <c r="M390" s="173"/>
       <c r="N390" s="57"/>
       <c r="O390" s="57"/>
       <c r="P390" s="57"/>
-      <c r="Q390" s="158"/>
-      <c r="R390" t="s" s="159">
+      <c r="Q390" s="157"/>
+      <c r="R390" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S390" t="s" s="159">
+      <c r="S390" t="s" s="158">
         <v>1380</v>
       </c>
-      <c r="T390" s="158"/>
-      <c r="U390" s="158"/>
+      <c r="T390" s="157"/>
+      <c r="U390" s="157"/>
       <c r="V390" s="42"/>
       <c r="W390" s="34"/>
     </row>
@@ -35711,21 +35713,21 @@
       <c r="H391" s="57"/>
       <c r="I391" s="57"/>
       <c r="J391" s="57"/>
-      <c r="K391" s="174"/>
-      <c r="L391" s="174"/>
-      <c r="M391" s="174"/>
+      <c r="K391" s="173"/>
+      <c r="L391" s="173"/>
+      <c r="M391" s="173"/>
       <c r="N391" s="57"/>
       <c r="O391" s="57"/>
       <c r="P391" s="57"/>
-      <c r="Q391" s="158"/>
-      <c r="R391" t="s" s="159">
+      <c r="Q391" s="157"/>
+      <c r="R391" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S391" t="s" s="159">
+      <c r="S391" t="s" s="158">
         <v>1639</v>
       </c>
-      <c r="T391" s="158"/>
-      <c r="U391" s="158"/>
+      <c r="T391" s="157"/>
+      <c r="U391" s="157"/>
       <c r="V391" s="42"/>
       <c r="W391" s="34"/>
     </row>
@@ -35736,7 +35738,7 @@
       <c r="B392" t="s" s="38">
         <v>2263</v>
       </c>
-      <c r="C392" s="160"/>
+      <c r="C392" s="159"/>
       <c r="D392" s="31"/>
       <c r="E392" s="31"/>
       <c r="F392" s="31"/>
@@ -35746,9 +35748,9 @@
       <c r="J392" t="s" s="29">
         <v>2264</v>
       </c>
-      <c r="K392" s="175"/>
-      <c r="L392" s="175"/>
-      <c r="M392" s="175"/>
+      <c r="K392" s="174"/>
+      <c r="L392" s="174"/>
+      <c r="M392" s="174"/>
       <c r="N392" s="31"/>
       <c r="O392" s="31"/>
       <c r="P392" s="31"/>
@@ -36060,17 +36062,17 @@
       <c r="J400" t="s" s="36">
         <v>2282</v>
       </c>
-      <c r="K400" s="171"/>
-      <c r="L400" s="171"/>
-      <c r="M400" s="171"/>
+      <c r="K400" s="170"/>
+      <c r="L400" s="170"/>
+      <c r="M400" s="170"/>
       <c r="N400" s="40"/>
       <c r="O400" s="40"/>
       <c r="P400" s="40"/>
       <c r="Q400" s="87"/>
-      <c r="R400" t="s" s="172">
+      <c r="R400" t="s" s="171">
         <v>1266</v>
       </c>
-      <c r="S400" t="s" s="172">
+      <c r="S400" t="s" s="171">
         <v>1639</v>
       </c>
       <c r="T400" s="87"/>
@@ -36093,21 +36095,21 @@
       <c r="H401" s="57"/>
       <c r="I401" s="57"/>
       <c r="J401" s="57"/>
-      <c r="K401" s="174"/>
-      <c r="L401" s="174"/>
-      <c r="M401" s="174"/>
+      <c r="K401" s="173"/>
+      <c r="L401" s="173"/>
+      <c r="M401" s="173"/>
       <c r="N401" s="57"/>
       <c r="O401" s="57"/>
       <c r="P401" s="57"/>
-      <c r="Q401" s="158"/>
-      <c r="R401" t="s" s="159">
+      <c r="Q401" s="157"/>
+      <c r="R401" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S401" t="s" s="159">
+      <c r="S401" t="s" s="158">
         <v>1639</v>
       </c>
-      <c r="T401" s="158"/>
-      <c r="U401" s="158"/>
+      <c r="T401" s="157"/>
+      <c r="U401" s="157"/>
       <c r="V401" s="42"/>
       <c r="W401" s="34"/>
     </row>
@@ -36132,21 +36134,21 @@
       <c r="J402" t="s" s="38">
         <v>2284</v>
       </c>
-      <c r="K402" s="174"/>
-      <c r="L402" s="174"/>
-      <c r="M402" s="174"/>
+      <c r="K402" s="173"/>
+      <c r="L402" s="173"/>
+      <c r="M402" s="173"/>
       <c r="N402" s="57"/>
       <c r="O402" s="57"/>
       <c r="P402" s="57"/>
-      <c r="Q402" s="158"/>
-      <c r="R402" t="s" s="159">
+      <c r="Q402" s="157"/>
+      <c r="R402" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S402" t="s" s="159">
+      <c r="S402" t="s" s="158">
         <v>1639</v>
       </c>
-      <c r="T402" s="158"/>
-      <c r="U402" s="158"/>
+      <c r="T402" s="157"/>
+      <c r="U402" s="157"/>
       <c r="V402" s="42"/>
       <c r="W402" s="34"/>
     </row>
@@ -36164,12 +36166,12 @@
       <c r="G403" s="31"/>
       <c r="H403" s="31"/>
       <c r="I403" s="31"/>
-      <c r="J403" t="s" s="189">
+      <c r="J403" t="s" s="188">
         <v>2286</v>
       </c>
-      <c r="K403" s="175"/>
-      <c r="L403" s="175"/>
-      <c r="M403" s="175"/>
+      <c r="K403" s="174"/>
+      <c r="L403" s="174"/>
+      <c r="M403" s="174"/>
       <c r="N403" s="31"/>
       <c r="O403" s="31"/>
       <c r="P403" s="31"/>
@@ -36177,7 +36179,7 @@
       <c r="R403" t="s" s="90">
         <v>1266</v>
       </c>
-      <c r="S403" t="s" s="202">
+      <c r="S403" t="s" s="201">
         <v>1639</v>
       </c>
       <c r="T403" s="89"/>
@@ -36242,7 +36244,7 @@
       <c r="I405" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J405" t="s" s="136">
+      <c r="J405" t="s" s="135">
         <v>2290</v>
       </c>
       <c r="K405" s="112"/>
@@ -36260,7 +36262,7 @@
       <c r="S405" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T405" s="184"/>
+      <c r="T405" s="183"/>
       <c r="U405" s="92"/>
       <c r="V405" s="34"/>
       <c r="W405" s="34"/>
@@ -36285,7 +36287,7 @@
       <c r="I406" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J406" t="s" s="136">
+      <c r="J406" t="s" s="135">
         <v>2292</v>
       </c>
       <c r="K406" s="112"/>
@@ -36303,7 +36305,7 @@
       <c r="S406" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T406" s="184"/>
+      <c r="T406" s="183"/>
       <c r="U406" s="92"/>
       <c r="V406" s="34"/>
       <c r="W406" s="34"/>
@@ -36328,7 +36330,7 @@
       <c r="I407" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J407" t="s" s="136">
+      <c r="J407" t="s" s="135">
         <v>2294</v>
       </c>
       <c r="K407" s="112"/>
@@ -36346,7 +36348,7 @@
       <c r="S407" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T407" s="184"/>
+      <c r="T407" s="183"/>
       <c r="U407" s="92"/>
       <c r="V407" s="34"/>
       <c r="W407" s="34"/>
@@ -36371,7 +36373,7 @@
       <c r="I408" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J408" t="s" s="136">
+      <c r="J408" t="s" s="135">
         <v>2296</v>
       </c>
       <c r="K408" s="112"/>
@@ -36389,7 +36391,7 @@
       <c r="S408" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T408" s="184"/>
+      <c r="T408" s="183"/>
       <c r="U408" s="92"/>
       <c r="V408" s="34"/>
       <c r="W408" s="34"/>
@@ -36414,7 +36416,7 @@
       <c r="I409" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J409" t="s" s="136">
+      <c r="J409" t="s" s="135">
         <v>2298</v>
       </c>
       <c r="K409" s="112"/>
@@ -36432,7 +36434,7 @@
       <c r="S409" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T409" s="184"/>
+      <c r="T409" s="183"/>
       <c r="U409" s="92"/>
       <c r="V409" s="34"/>
       <c r="W409" s="34"/>
@@ -36457,7 +36459,7 @@
       <c r="I410" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J410" t="s" s="136">
+      <c r="J410" t="s" s="135">
         <v>2300</v>
       </c>
       <c r="K410" s="112"/>
@@ -36475,7 +36477,7 @@
       <c r="S410" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T410" s="184"/>
+      <c r="T410" s="183"/>
       <c r="U410" s="92"/>
       <c r="V410" s="34"/>
       <c r="W410" s="34"/>
@@ -36500,7 +36502,7 @@
       <c r="I411" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J411" t="s" s="136">
+      <c r="J411" t="s" s="135">
         <v>2302</v>
       </c>
       <c r="K411" s="112"/>
@@ -36518,7 +36520,7 @@
       <c r="S411" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T411" s="184"/>
+      <c r="T411" s="183"/>
       <c r="U411" s="92"/>
       <c r="V411" s="34"/>
       <c r="W411" s="34"/>
@@ -36543,7 +36545,7 @@
       <c r="I412" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J412" t="s" s="136">
+      <c r="J412" t="s" s="135">
         <v>2304</v>
       </c>
       <c r="K412" s="112"/>
@@ -36561,7 +36563,7 @@
       <c r="S412" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T412" s="184"/>
+      <c r="T412" s="183"/>
       <c r="U412" s="92"/>
       <c r="V412" s="34"/>
       <c r="W412" s="34"/>
@@ -36586,7 +36588,7 @@
       <c r="I413" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J413" t="s" s="136">
+      <c r="J413" t="s" s="135">
         <v>2306</v>
       </c>
       <c r="K413" s="112"/>
@@ -36604,7 +36606,7 @@
       <c r="S413" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T413" s="184"/>
+      <c r="T413" s="183"/>
       <c r="U413" s="92"/>
       <c r="V413" s="34"/>
       <c r="W413" s="34"/>
@@ -36629,7 +36631,7 @@
       <c r="I414" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J414" t="s" s="136">
+      <c r="J414" t="s" s="135">
         <v>2308</v>
       </c>
       <c r="K414" s="112"/>
@@ -36647,7 +36649,7 @@
       <c r="S414" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T414" s="184"/>
+      <c r="T414" s="183"/>
       <c r="U414" s="92"/>
       <c r="V414" s="34"/>
       <c r="W414" s="34"/>
@@ -36672,7 +36674,7 @@
       <c r="I415" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J415" t="s" s="136">
+      <c r="J415" t="s" s="135">
         <v>2310</v>
       </c>
       <c r="K415" s="112"/>
@@ -36690,7 +36692,7 @@
       <c r="S415" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T415" s="184"/>
+      <c r="T415" s="183"/>
       <c r="U415" s="92"/>
       <c r="V415" s="34"/>
       <c r="W415" s="34"/>
@@ -36715,7 +36717,7 @@
       <c r="I416" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J416" t="s" s="136">
+      <c r="J416" t="s" s="135">
         <v>2312</v>
       </c>
       <c r="K416" s="112"/>
@@ -36733,7 +36735,7 @@
       <c r="S416" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T416" s="184"/>
+      <c r="T416" s="183"/>
       <c r="U416" s="92"/>
       <c r="V416" s="34"/>
       <c r="W416" s="34"/>
@@ -36758,7 +36760,7 @@
       <c r="I417" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J417" t="s" s="136">
+      <c r="J417" t="s" s="135">
         <v>2314</v>
       </c>
       <c r="K417" s="112"/>
@@ -36776,7 +36778,7 @@
       <c r="S417" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T417" s="184"/>
+      <c r="T417" s="183"/>
       <c r="U417" s="92"/>
       <c r="V417" s="34"/>
       <c r="W417" s="34"/>
@@ -36801,7 +36803,7 @@
       <c r="I418" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J418" t="s" s="136">
+      <c r="J418" t="s" s="135">
         <v>2316</v>
       </c>
       <c r="K418" s="112"/>
@@ -36819,7 +36821,7 @@
       <c r="S418" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T418" s="184"/>
+      <c r="T418" s="183"/>
       <c r="U418" s="92"/>
       <c r="V418" s="34"/>
       <c r="W418" s="34"/>
@@ -36844,7 +36846,7 @@
       <c r="I419" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J419" t="s" s="136">
+      <c r="J419" t="s" s="135">
         <v>2318</v>
       </c>
       <c r="K419" s="112"/>
@@ -36862,7 +36864,7 @@
       <c r="S419" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T419" s="184"/>
+      <c r="T419" s="183"/>
       <c r="U419" s="92"/>
       <c r="V419" s="34"/>
       <c r="W419" s="34"/>
@@ -36887,7 +36889,7 @@
       <c r="I420" t="s" s="38">
         <v>1378</v>
       </c>
-      <c r="J420" t="s" s="136">
+      <c r="J420" t="s" s="135">
         <v>2320</v>
       </c>
       <c r="K420" s="112"/>
@@ -36905,7 +36907,7 @@
       <c r="S420" t="s" s="95">
         <v>1639</v>
       </c>
-      <c r="T420" s="184"/>
+      <c r="T420" s="183"/>
       <c r="U420" s="92"/>
       <c r="V420" s="34"/>
       <c r="W420" s="34"/>
@@ -36925,9 +36927,9 @@
       <c r="F421" t="s" s="111">
         <v>2322</v>
       </c>
-      <c r="G421" s="135"/>
+      <c r="G421" s="134"/>
       <c r="H421" s="57"/>
-      <c r="I421" s="160"/>
+      <c r="I421" s="159"/>
       <c r="J421" t="s" s="44">
         <v>2323</v>
       </c>
@@ -36964,7 +36966,7 @@
       <c r="F422" t="s" s="111">
         <v>2325</v>
       </c>
-      <c r="G422" s="135"/>
+      <c r="G422" s="134"/>
       <c r="H422" s="57"/>
       <c r="I422" s="42"/>
       <c r="J422" t="s" s="44">
@@ -37000,8 +37002,8 @@
       </c>
       <c r="D423" s="40"/>
       <c r="E423" s="40"/>
-      <c r="F423" s="208"/>
-      <c r="G423" s="209"/>
+      <c r="F423" s="207"/>
+      <c r="G423" s="208"/>
       <c r="H423" s="57"/>
       <c r="I423" s="97"/>
       <c r="J423" t="s" s="45">
@@ -37014,10 +37016,10 @@
       <c r="O423" s="40"/>
       <c r="P423" s="40"/>
       <c r="Q423" s="40"/>
-      <c r="R423" t="s" s="172">
+      <c r="R423" t="s" s="171">
         <v>1266</v>
       </c>
-      <c r="S423" t="s" s="204">
+      <c r="S423" t="s" s="203">
         <v>1639</v>
       </c>
       <c r="T423" s="40"/>
@@ -37039,22 +37041,22 @@
       <c r="G424" s="114"/>
       <c r="H424" s="57"/>
       <c r="I424" s="57"/>
-      <c r="J424" s="174"/>
-      <c r="K424" s="174"/>
-      <c r="L424" s="174"/>
-      <c r="M424" s="174"/>
+      <c r="J424" s="173"/>
+      <c r="K424" s="173"/>
+      <c r="L424" s="173"/>
+      <c r="M424" s="173"/>
       <c r="N424" s="57"/>
       <c r="O424" s="57"/>
       <c r="P424" s="57"/>
-      <c r="Q424" s="158"/>
-      <c r="R424" t="s" s="159">
+      <c r="Q424" s="157"/>
+      <c r="R424" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S424" t="s" s="159">
+      <c r="S424" t="s" s="158">
         <v>1639</v>
       </c>
-      <c r="T424" s="158"/>
-      <c r="U424" s="158"/>
+      <c r="T424" s="157"/>
+      <c r="U424" s="157"/>
       <c r="V424" s="42"/>
       <c r="W424" s="34"/>
     </row>
@@ -37077,21 +37079,21 @@
       <c r="J425" t="s" s="38">
         <v>2330</v>
       </c>
-      <c r="K425" s="174"/>
-      <c r="L425" s="174"/>
-      <c r="M425" s="174"/>
+      <c r="K425" s="173"/>
+      <c r="L425" s="173"/>
+      <c r="M425" s="173"/>
       <c r="N425" s="57"/>
       <c r="O425" s="57"/>
       <c r="P425" s="57"/>
-      <c r="Q425" s="158"/>
-      <c r="R425" t="s" s="159">
+      <c r="Q425" s="157"/>
+      <c r="R425" t="s" s="158">
         <v>1266</v>
       </c>
-      <c r="S425" t="s" s="159">
+      <c r="S425" t="s" s="158">
         <v>1639</v>
       </c>
-      <c r="T425" s="158"/>
-      <c r="U425" s="158"/>
+      <c r="T425" s="157"/>
+      <c r="U425" s="157"/>
       <c r="V425" s="42"/>
       <c r="W425" s="34"/>
     </row>
@@ -37109,12 +37111,12 @@
       <c r="G426" s="31"/>
       <c r="H426" s="31"/>
       <c r="I426" s="31"/>
-      <c r="J426" t="s" s="189">
+      <c r="J426" t="s" s="188">
         <v>2332</v>
       </c>
-      <c r="K426" s="175"/>
-      <c r="L426" s="175"/>
-      <c r="M426" s="175"/>
+      <c r="K426" s="174"/>
+      <c r="L426" s="174"/>
+      <c r="M426" s="174"/>
       <c r="N426" s="31"/>
       <c r="O426" s="31"/>
       <c r="P426" s="31"/>
@@ -38585,7 +38587,7 @@
         <v>2422</v>
       </c>
       <c r="K462" s="34"/>
-      <c r="L462" s="210"/>
+      <c r="L462" s="209"/>
       <c r="M462" s="34"/>
       <c r="N462" s="34"/>
       <c r="O462" s="34">
@@ -38779,7 +38781,7 @@
       <c r="F467" t="s" s="73">
         <v>2434</v>
       </c>
-      <c r="G467" s="168"/>
+      <c r="G467" s="167"/>
       <c r="H467" s="34"/>
       <c r="I467" s="34"/>
       <c r="J467" t="s" s="44">
@@ -38854,8 +38856,8 @@
       </c>
       <c r="D469" s="40"/>
       <c r="E469" s="40"/>
-      <c r="F469" s="208"/>
-      <c r="G469" s="208"/>
+      <c r="F469" s="207"/>
+      <c r="G469" s="207"/>
       <c r="H469" s="40"/>
       <c r="I469" s="40"/>
       <c r="J469" t="s" s="45">
@@ -38868,13 +38870,13 @@
       <c r="O469" s="40"/>
       <c r="P469" s="40"/>
       <c r="Q469" s="40"/>
-      <c r="R469" t="s" s="172">
+      <c r="R469" t="s" s="171">
         <v>1266</v>
       </c>
-      <c r="S469" t="s" s="172">
+      <c r="S469" t="s" s="171">
         <v>1639</v>
       </c>
-      <c r="T469" s="208"/>
+      <c r="T469" s="207"/>
       <c r="U469" s="40"/>
       <c r="V469" s="34"/>
       <c r="W469" s="34"/>
@@ -38893,23 +38895,23 @@
       <c r="G470" s="114"/>
       <c r="H470" s="57"/>
       <c r="I470" s="57"/>
-      <c r="J470" s="174"/>
-      <c r="K470" s="174"/>
-      <c r="L470" s="174"/>
-      <c r="M470" s="174"/>
-      <c r="N470" s="174"/>
+      <c r="J470" s="173"/>
+      <c r="K470" s="173"/>
+      <c r="L470" s="173"/>
+      <c r="M470" s="173"/>
+      <c r="N470" s="173"/>
       <c r="O470" s="57"/>
-      <c r="P470" s="174"/>
-      <c r="Q470" s="174"/>
+      <c r="P470" s="173"/>
+      <c r="Q470" s="173"/>
       <c r="R470" t="s" s="46">
         <v>1266</v>
       </c>
       <c r="S470" t="s" s="46">
         <v>1639</v>
       </c>
-      <c r="T470" s="174"/>
-      <c r="U470" s="174"/>
-      <c r="V470" s="188"/>
+      <c r="T470" s="173"/>
+      <c r="U470" s="173"/>
+      <c r="V470" s="187"/>
       <c r="W470" s="34"/>
     </row>
     <row r="471" ht="13.65" customHeight="1">
@@ -38932,7 +38934,7 @@
       <c r="I471" t="s" s="29">
         <v>1378</v>
       </c>
-      <c r="J471" t="s" s="189">
+      <c r="J471" t="s" s="188">
         <v>2442</v>
       </c>
       <c r="K471" s="31"/>
@@ -44586,12 +44588,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27.1719" style="211" customWidth="1"/>
-    <col min="2" max="2" width="24.6719" style="211" customWidth="1"/>
-    <col min="3" max="3" width="24.3516" style="211" customWidth="1"/>
-    <col min="4" max="4" width="17" style="211" customWidth="1"/>
-    <col min="5" max="5" width="34" style="211" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="211" customWidth="1"/>
+    <col min="1" max="1" width="27.1719" style="210" customWidth="1"/>
+    <col min="2" max="2" width="24.6719" style="210" customWidth="1"/>
+    <col min="3" max="3" width="24.3516" style="210" customWidth="1"/>
+    <col min="4" max="4" width="17" style="210" customWidth="1"/>
+    <col min="5" max="5" width="34" style="210" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="210" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">

--- a/backend/hct_mis_api/apps/core/tests/test_files/kobo-template-valid.xlsx
+++ b/backend/hct_mis_api/apps/core/tests/test_files/kobo-template-valid.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2455">
   <si>
     <t>list_name</t>
   </si>
@@ -7439,6 +7439,9 @@
   </si>
   <si>
     <t xml:space="preserve">What is the Family’s average daily income in ${currency_h_c} </t>
+  </si>
+  <si>
+    <t>program_registration_id_h_c</t>
   </si>
   <si>
     <t>form_title</t>
@@ -38708,9 +38711,15 @@
       <c r="W476" s="10"/>
     </row>
     <row r="477" ht="13.65" customHeight="1">
-      <c r="A477" s="10"/>
-      <c r="B477" s="10"/>
-      <c r="C477" s="10"/>
+      <c r="A477" t="s" s="8">
+        <v>1275</v>
+      </c>
+      <c r="B477" t="s" s="8">
+        <v>2446</v>
+      </c>
+      <c r="C477" t="b" s="100">
+        <v>0</v>
+      </c>
       <c r="D477" s="10"/>
       <c r="E477" s="10"/>
       <c r="F477" s="10"/>
@@ -44237,16 +44246,16 @@
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
       <c r="A1" t="s" s="12">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="B1" t="s" s="12">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="C1" t="s" s="12">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="D1" t="s" s="12">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="E1" t="s" s="12">
         <v>1251</v>
@@ -44254,17 +44263,17 @@
     </row>
     <row r="2" ht="13.65" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" t="s" s="5">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="E2" t="s" s="5">
-        <v>2453</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="3" ht="13.65" customHeight="1">

--- a/backend/hct_mis_api/apps/core/tests/test_files/kobo-template-valid.xlsx
+++ b/backend/hct_mis_api/apps/core/tests/test_files/kobo-template-valid.xlsx
@@ -7423,10 +7423,10 @@
     <t xml:space="preserve">What is the Family’s average daily income in ${currency_h_c} </t>
   </si>
   <si>
-    <t>kobo_registration_id_h_c</t>
-  </si>
-  <si>
-    <t>Kobo registration id</t>
+    <t>program_registration_id_h_c</t>
+  </si>
+  <si>
+    <t>Program registration id</t>
   </si>
   <si>
     <t>form_title</t>
@@ -8524,13 +8524,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -8628,10 +8622,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -8877,13 +8871,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -9185,10 +9173,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">

--- a/backend/hct_mis_api/apps/core/tests/test_files/kobo-template-valid.xlsx
+++ b/backend/hct_mis_api/apps/core/tests/test_files/kobo-template-valid.xlsx
@@ -4897,7 +4897,7 @@
     <t>National ID photo</t>
   </si>
   <si>
-    <t>national_passport_i_c</t>
+    <t>national_passport_no_i_c</t>
   </si>
   <si>
     <t>selected(${id_type_i_c}, 'national_passport')</t>
